--- a/Báo cáo/1_CẦN THƠ/CẦN THƠ 8 - 2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/CẦN THƠ 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -713,51 +713,223 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tổng</t>
+          <t>HD-LUXURY</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+        <v>620</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Trần Thị Thanh Nhàn</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
       <c r="I4" t="n">
-        <v>2100000</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>28000000</v>
+      </c>
+      <c r="J4" t="n">
+        <v/>
+      </c>
       <c r="K4" t="n">
-        <v>6000000</v>
+        <v/>
       </c>
       <c r="L4" t="n">
-        <v>8100000</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+        <v>28000000</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v/>
+      </c>
       <c r="O4" t="n">
-        <v>8100000</v>
+        <v>28000000</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>8100000</v>
+        <v>28000000</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v/>
+      </c>
       <c r="U4" t="n">
         <v>100000</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>621</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Trần Thị Ngọc Dung</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
+        <v/>
+      </c>
+      <c r="L5" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v/>
+      </c>
+      <c r="O5" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v/>
+      </c>
+      <c r="U5" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V5" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>39100000</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>45100000</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>45100000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>45100000</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="n">
+        <v>300000</v>
+      </c>
+      <c r="V6" t="n">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
@@ -771,7 +943,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,6 +979,11 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Lượng thu</t>
         </is>
       </c>
@@ -814,17 +991,117 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>171</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-190</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>172</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-191</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>173</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-587</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>0</v>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>15000000</v>
       </c>
     </row>
   </sheetData>
@@ -838,7 +1115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -963,17 +1240,73 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>750</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>751</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2230000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>7363000</v>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>10593000</v>
       </c>
     </row>
   </sheetData>
@@ -1100,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>50000</v>
+        <v>250000</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1122,7 +1455,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>9000000</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1146,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>132600000</v>
+        <v>137600000</v>
       </c>
     </row>
     <row r="5">
@@ -1214,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18000000</v>
+        <v>28000000</v>
       </c>
     </row>
     <row r="7">
@@ -1292,13 +1625,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>28000000</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>37000000</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1394,22 +1727,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2100000</v>
+        <v>39100000</v>
       </c>
       <c r="C12" t="n">
         <v>6000000</v>
       </c>
       <c r="D12" t="n">
-        <v>8100000</v>
+        <v>45100000</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>50000</v>
+        <v>250000</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1418,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>232600000</v>
+        <v>247600000</v>
       </c>
     </row>
   </sheetData>
@@ -1432,7 +1765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1455,41 +1788,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>220000</v>
+        <v>2230000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2143000</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Blank</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5000000</v>
+        <v>2143000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Tổng cộng</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>7363000</v>
+      <c r="B7" t="n">
+        <v>10593000</v>
       </c>
     </row>
   </sheetData>
@@ -1503,7 +1856,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,26 +1954,51 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tổng</t>
+          <t>08-03-2024</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8100000</v>
+        <v>37000000</v>
       </c>
       <c r="C4" t="n">
-        <v>8100000</v>
+        <v>37000000</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="F4" t="n">
-        <v>7363000</v>
+        <v>3230000</v>
       </c>
       <c r="G4" t="n">
-        <v>737000</v>
+        <v>48770000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>45100000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>45100000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10593000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>49507000</v>
       </c>
     </row>
   </sheetData>
@@ -1701,7 +2079,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>335714.2857142857</v>
+        <v>482142.8571428572</v>
       </c>
     </row>
     <row r="5">
@@ -1791,7 +2169,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>308095.2380952381</v>
+        <v>2378095.238095238</v>
       </c>
     </row>
     <row r="11">
@@ -1806,7 +2184,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>573214.2857142857</v>
+        <v>7771071.428571429</v>
       </c>
     </row>
     <row r="12">
@@ -1821,7 +2199,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1141428.571428571</v>
+        <v>2141428.571428571</v>
       </c>
     </row>
     <row r="13">
@@ -1982,7 +2360,7 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>5810738.095238094</v>
+        <v>16225023.80952381</v>
       </c>
     </row>
   </sheetData>
@@ -1996,7 +2374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2007,69 +2385,103 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Doanh thu</t>
+          <t>Cơ sở</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Tổng đơn giá</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ thanh toán</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ nợ</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>Thu nợ</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Tổng doanh thu</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Chi tiêu</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Quỹ lương</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Tổng chi phí</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Lợi nhuận</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Tỉ lệ lợi nhuận</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>8100000</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>22550000</v>
       </c>
       <c r="C2" t="n">
-        <v>8100000</v>
+        <v>22550000</v>
       </c>
       <c r="D2" t="n">
-        <v>7363000</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>5810738.095238094</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13173738.09523809</v>
+        <v>7500000</v>
       </c>
       <c r="G2" t="n">
-        <v>-5073738.095238093</v>
+        <v>30050000</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.6263874191651967</v>
+        <v>5296500</v>
+      </c>
+      <c r="I2" t="n">
+        <v>16225023.80952381</v>
+      </c>
+      <c r="J2" t="n">
+        <v>21521523.80952381</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8528476.19047619</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.2838095238095238</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/CẦN THƠ 8 - 2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/CẦN THƠ 8 - 2024.xlsx
@@ -2079,7 +2079,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>482142.8571428572</v>
+        <v>4482142.857142857</v>
       </c>
     </row>
     <row r="5">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>16225023.80952381</v>
+        <v>20225023.80952381</v>
       </c>
     </row>
   </sheetData>
@@ -2472,16 +2472,16 @@
         <v>5296500</v>
       </c>
       <c r="I2" t="n">
-        <v>16225023.80952381</v>
+        <v>20225023.80952381</v>
       </c>
       <c r="J2" t="n">
-        <v>21521523.80952381</v>
+        <v>25521523.80952381</v>
       </c>
       <c r="K2" t="n">
-        <v>8528476.19047619</v>
+        <v>4528476.19047619</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2838095238095238</v>
+        <v>0.1506980429442992</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/CẦN THƠ 8 - 2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/CẦN THƠ 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -885,51 +885,637 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>08-01-2024</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>623</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v/>
+      </c>
+      <c r="F6" t="n">
+        <v/>
+      </c>
+      <c r="G6" t="n">
+        <v/>
+      </c>
+      <c r="H6" t="n">
+        <v/>
+      </c>
+      <c r="I6" t="n">
+        <v/>
+      </c>
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v/>
+      </c>
+      <c r="N6" t="n">
+        <v/>
+      </c>
+      <c r="O6" t="n">
+        <v/>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="n">
+        <v/>
+      </c>
+      <c r="U6" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>629</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Phạm Thị Trúc Lài</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>500000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v/>
+      </c>
+      <c r="O7" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="n">
+        <v/>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>630</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v/>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>4650000</v>
+      </c>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v>4650000</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v/>
+      </c>
+      <c r="O8" t="n">
+        <v>4650000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4650000</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+      <c r="U8" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V8" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>08-06-2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>631</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Võ Thị Thuỳ Trang</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v/>
+      </c>
+      <c r="O9" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>08-07-2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>632</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tiêm botox</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Thắm</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Lê Văn Linh</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v/>
+      </c>
+      <c r="O10" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>08-07-2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>633</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Bạch Nhi</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Lê Hoàng Thanh</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="J11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="n">
+        <v/>
+      </c>
+      <c r="L11" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v/>
+      </c>
+      <c r="O11" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="R11" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v/>
+      </c>
+      <c r="U11" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V11" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>08-08-2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>635</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nguyễn Bích Thuỳ</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Khách cũ giới thiệu</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v/>
+      </c>
+      <c r="L12" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v/>
+      </c>
+      <c r="O12" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v/>
+      </c>
+      <c r="U12" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>39100000</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="L6" t="n">
-        <v>45100000</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
-        <v>45100000</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>45100000</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>300000</v>
-      </c>
-      <c r="V6" t="n">
-        <v>100000</v>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>70750000</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>7500000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>78250000</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>68250000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>70250000</v>
+      </c>
+      <c r="R13" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="n">
+        <v>550000</v>
+      </c>
+      <c r="V13" t="n">
+        <v>200000</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +1529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1090,18 +1676,84 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>181</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-538</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>183</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-633</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-08-07</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>15000000</v>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>18500000</v>
       </c>
     </row>
   </sheetData>
@@ -1115,7 +1767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1154,6 +1806,11 @@
           <t>Lượng chi</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Ghi chú</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1180,6 +1837,9 @@
       <c r="F2" t="n">
         <v>5000000</v>
       </c>
+      <c r="G2" t="n">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1208,6 +1868,9 @@
       <c r="F3" t="n">
         <v>220000</v>
       </c>
+      <c r="G3" t="n">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1236,6 +1899,9 @@
       <c r="F4" t="n">
         <v>2143000</v>
       </c>
+      <c r="G4" t="n">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1264,6 +1930,9 @@
       <c r="F5" t="n">
         <v>1000000</v>
       </c>
+      <c r="G5" t="n">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1292,22 +1961,243 @@
       <c r="F6" t="n">
         <v>2230000</v>
       </c>
+      <c r="G6" t="n">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>757</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="G7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>758</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>759</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>300000</v>
+      </c>
+      <c r="G9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>760</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>764</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>08-06-2024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>768</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>08-08-2024</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="G12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>769</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>08-08-2024</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>10593000</v>
-      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>42243000</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1320,7 +2210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1383,7 +2273,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CTV Ngoài</t>
+          <t>Bác Sĩ Ngoài</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1393,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>4650000</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1411,17 +2301,17 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lâm Hoàng Phú</t>
+          <t>CTV Ngoài</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>5650000</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1433,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1451,11 +2341,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Lâm Hoàng Phú</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9000000</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1467,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1479,17 +2369,17 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>137600000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lê Hoàng Thanh</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>9000000</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1519,11 +2409,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lê Văn Linh</t>
+          <t>Lê Hoàng Thanh</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1547,17 +2437,17 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>28000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Lê Văn Linh</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1581,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>48500000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="8">
@@ -1591,13 +2481,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>9000000</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>8100000</v>
+        <v>21600000</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1631,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>37000000</v>
+        <v>44000000</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1649,20 +2539,20 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Trương Lâm Khanh</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2100000</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>7500000</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1683,32 +2573,32 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Tổng</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2100000</v>
+        <v>70750000</v>
       </c>
       <c r="C11" t="n">
-        <v>6000000</v>
+        <v>7500000</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>70250000</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1717,41 +2607,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4500000</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Tổng</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>39100000</v>
-      </c>
-      <c r="C12" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="D12" t="n">
-        <v>45100000</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" t="n">
-        <v>250000</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>247600000</v>
+        <v>18500000</v>
       </c>
     </row>
   </sheetData>
@@ -1765,7 +2621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,61 +2644,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2230000</v>
+        <v>1350000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>220000</v>
+        <v>2230000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2143000</v>
+        <v>25220000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1000000</v>
+        <v>2143000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Blank</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5000000</v>
+        <v>6300000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Tổng cộng</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>10593000</v>
+      <c r="B8" t="n">
+        <v>42243000</v>
       </c>
     </row>
   </sheetData>
@@ -1856,7 +2722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1914,7 +2780,7 @@
         <v>8100000</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1979,26 +2845,151 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5650000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5650000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6650000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1000000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>08-06-2024</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-500000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>08-07-2024</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>17000000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>08-08-2024</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>23000000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-14000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>45100000</v>
-      </c>
-      <c r="C5" t="n">
-        <v>45100000</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>15000000</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10593000</v>
-      </c>
-      <c r="G5" t="n">
-        <v>49507000</v>
+      <c r="B10" t="n">
+        <v>78250000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>68250000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11</v>
+      </c>
+      <c r="E10" t="n">
+        <v>18500000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>42243000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>44507000</v>
       </c>
     </row>
   </sheetData>
@@ -2049,7 +3040,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>877142.8571428572</v>
+        <v>1908214.285714286</v>
       </c>
     </row>
     <row r="3">
@@ -2064,7 +3055,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>214285.7142857143</v>
+        <v>428571.4285714286</v>
       </c>
     </row>
     <row r="4">
@@ -2079,7 +3070,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4482142.857142857</v>
+        <v>1122500</v>
       </c>
     </row>
     <row r="5">
@@ -2094,7 +3085,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>142857.1428571429</v>
+        <v>571428.5714285715</v>
       </c>
     </row>
     <row r="6">
@@ -2109,7 +3100,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>428571.4285714286</v>
+        <v>1714285.714285714</v>
       </c>
     </row>
     <row r="7">
@@ -2139,7 +3130,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>500000</v>
+        <v>-2000000</v>
       </c>
     </row>
     <row r="9">
@@ -2154,7 +3145,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1289428.571428571</v>
+        <v>5243714.285714285</v>
       </c>
     </row>
     <row r="10">
@@ -2169,7 +3160,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2378095.238095238</v>
+        <v>3452380.952380952</v>
       </c>
     </row>
     <row r="11">
@@ -2184,7 +3175,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7771071.428571429</v>
+        <v>7968571.428571429</v>
       </c>
     </row>
     <row r="12">
@@ -2199,7 +3190,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2141428.571428571</v>
+        <v>5765714.285714285</v>
       </c>
     </row>
     <row r="13">
@@ -2229,7 +3220,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="15">
@@ -2360,7 +3351,7 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>20225023.80952381</v>
+        <v>26875380.95238096</v>
       </c>
     </row>
   </sheetData>
@@ -2451,37 +3442,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22550000</v>
+        <v>78250000</v>
       </c>
       <c r="C2" t="n">
-        <v>22550000</v>
+        <v>70250000</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.8977635782747604</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.1022364217252396</v>
       </c>
       <c r="F2" t="n">
-        <v>7500000</v>
+        <v>16500000</v>
       </c>
       <c r="G2" t="n">
-        <v>30050000</v>
+        <v>86750000</v>
       </c>
       <c r="H2" t="n">
-        <v>5296500</v>
+        <v>42243000</v>
       </c>
       <c r="I2" t="n">
-        <v>20225023.80952381</v>
+        <v>26875380.95238096</v>
       </c>
       <c r="J2" t="n">
-        <v>25521523.80952381</v>
+        <v>69118380.95238096</v>
       </c>
       <c r="K2" t="n">
-        <v>4528476.19047619</v>
+        <v>17631619.04761904</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1506980429442992</v>
+        <v>0.2032463290791821</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/CẦN THƠ 8 - 2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/CẦN THƠ 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1471,50 +1471,218 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>08-11-2024</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>643</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Trần Thị Nhi</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v/>
+      </c>
+      <c r="L13" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v/>
+      </c>
+      <c r="O13" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+      <c r="U13" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>08-11-2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>644</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Cọc Dịch Vụ Làm Đẹp</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Huyền Trang</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="J14" t="n">
+        <v/>
+      </c>
+      <c r="K14" t="n">
+        <v/>
+      </c>
+      <c r="L14" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="M14" t="n">
+        <v/>
+      </c>
+      <c r="N14" t="n">
+        <v/>
+      </c>
+      <c r="O14" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="n">
+        <v/>
+      </c>
+      <c r="U14" t="n">
+        <v/>
+      </c>
+      <c r="V14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>11</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="n">
-        <v>70750000</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>77750000</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
         <v>7500000</v>
       </c>
-      <c r="L13" t="n">
-        <v>78250000</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
-        <v>68250000</v>
-      </c>
-      <c r="P13" t="n">
+      <c r="L15" t="n">
+        <v>85250000</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>75250000</v>
+      </c>
+      <c r="P15" t="n">
         <v>2000000</v>
       </c>
-      <c r="Q13" t="n">
-        <v>70250000</v>
-      </c>
-      <c r="R13" t="n">
+      <c r="Q15" t="n">
+        <v>77250000</v>
+      </c>
+      <c r="R15" t="n">
         <v>8000000</v>
       </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="n">
-        <v>550000</v>
-      </c>
-      <c r="V13" t="n">
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="n">
+        <v>600000</v>
+      </c>
+      <c r="V15" t="n">
         <v>200000</v>
       </c>
     </row>
@@ -1529,7 +1697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1742,18 +1910,51 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>184</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-315</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>18500000</v>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>19500000</v>
       </c>
     </row>
   </sheetData>
@@ -1767,7 +1968,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2185,19 +2386,116 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>780</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1070000</v>
+      </c>
+      <c r="G14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>781</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>08-11-2024</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Nộp phạt xe</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>782</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>08-11-2024</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Tiêm 1 filler</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>42243000</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>48813000</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2210,7 +2508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,7 +2677,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9000000</v>
+        <v>13000000</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2403,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="6">
@@ -2487,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>21600000</v>
+        <v>24600000</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -2545,14 +2843,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Trương Lâm Khanh</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2100000</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>7500000</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -2561,10 +2859,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -2579,26 +2877,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tổng</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>70750000</v>
+        <v>5100000</v>
       </c>
       <c r="C11" t="n">
         <v>7500000</v>
       </c>
       <c r="D11" t="n">
-        <v>70250000</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -2607,7 +2905,41 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>18500000</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>77750000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7500000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>73250000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7</v>
+      </c>
+      <c r="G12" t="n">
+        <v>550000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>19500000</v>
       </c>
     </row>
   </sheetData>
@@ -2648,7 +2980,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1350000</v>
+        <v>2420000</v>
       </c>
     </row>
     <row r="3">
@@ -2688,7 +3020,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6300000</v>
+        <v>11800000</v>
       </c>
     </row>
     <row r="7">
@@ -2708,7 +3040,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42243000</v>
+        <v>48813000</v>
       </c>
     </row>
   </sheetData>
@@ -2722,7 +3054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2970,26 +3302,76 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1070000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-70000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>08-11-2024</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>78250000</v>
-      </c>
-      <c r="C10" t="n">
-        <v>68250000</v>
-      </c>
-      <c r="D10" t="n">
-        <v>11</v>
-      </c>
-      <c r="E10" t="n">
-        <v>18500000</v>
-      </c>
-      <c r="F10" t="n">
-        <v>42243000</v>
-      </c>
-      <c r="G10" t="n">
-        <v>44507000</v>
+      <c r="B12" t="n">
+        <v>85250000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>75250000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>13</v>
+      </c>
+      <c r="E12" t="n">
+        <v>19500000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>48813000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>45937000</v>
       </c>
     </row>
   </sheetData>
@@ -3040,7 +3422,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1908214.285714286</v>
+        <v>2848928.571428572</v>
       </c>
     </row>
     <row r="3">
@@ -3055,7 +3437,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>428571.4285714286</v>
+        <v>-4200000</v>
       </c>
     </row>
     <row r="4">
@@ -3070,7 +3452,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1122500</v>
+        <v>1238571.428571429</v>
       </c>
     </row>
     <row r="5">
@@ -3085,7 +3467,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>571428.5714285715</v>
+        <v>785714.2857142858</v>
       </c>
     </row>
     <row r="6">
@@ -3100,7 +3482,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1714285.714285714</v>
+        <v>2357142.857142857</v>
       </c>
     </row>
     <row r="7">
@@ -3130,7 +3512,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-2000000</v>
+        <v>-1250000</v>
       </c>
     </row>
     <row r="9">
@@ -3145,7 +3527,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5243714.285714285</v>
+        <v>5625142.857142857</v>
       </c>
     </row>
     <row r="10">
@@ -3160,7 +3542,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3452380.952380952</v>
+        <v>4074523.80952381</v>
       </c>
     </row>
     <row r="11">
@@ -3175,7 +3557,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7968571.428571429</v>
+        <v>8455000</v>
       </c>
     </row>
     <row r="12">
@@ -3190,7 +3572,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5765714.285714285</v>
+        <v>7477857.142857143</v>
       </c>
     </row>
     <row r="13">
@@ -3351,7 +3733,7 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>26875380.95238096</v>
+        <v>28112880.95238096</v>
       </c>
     </row>
   </sheetData>
@@ -3442,37 +3824,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78250000</v>
+        <v>85250000</v>
       </c>
       <c r="C2" t="n">
-        <v>70250000</v>
+        <v>77250000</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8977635782747604</v>
+        <v>0.906158357771261</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1022364217252396</v>
+        <v>0.09384164222873903</v>
       </c>
       <c r="F2" t="n">
-        <v>16500000</v>
+        <v>17500000</v>
       </c>
       <c r="G2" t="n">
-        <v>86750000</v>
+        <v>94750000</v>
       </c>
       <c r="H2" t="n">
-        <v>42243000</v>
+        <v>48813000</v>
       </c>
       <c r="I2" t="n">
-        <v>26875380.95238096</v>
+        <v>28112880.95238096</v>
       </c>
       <c r="J2" t="n">
-        <v>69118380.95238096</v>
+        <v>76925880.95238096</v>
       </c>
       <c r="K2" t="n">
-        <v>17631619.04761904</v>
+        <v>17824119.04761904</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2032463290791821</v>
+        <v>0.1881173514260585</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/CẦN THƠ 8 - 2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/CẦN THƠ 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1639,51 +1639,977 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>08-13-2024</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>647</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bé Su</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>5400000</v>
+      </c>
+      <c r="J15" t="n">
+        <v/>
+      </c>
+      <c r="K15" t="n">
+        <v/>
+      </c>
+      <c r="L15" t="n">
+        <v>5400000</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v/>
+      </c>
+      <c r="O15" t="n">
+        <v>5400000</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5400000</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="n">
+        <v/>
+      </c>
+      <c r="U15" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>08-13-2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>648</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Huyền Trân</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Thị Ngọc Hà My </t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="J16" t="n">
+        <v/>
+      </c>
+      <c r="K16" t="n">
+        <v/>
+      </c>
+      <c r="L16" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M16" t="n">
+        <v/>
+      </c>
+      <c r="N16" t="n">
+        <v/>
+      </c>
+      <c r="O16" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="n">
+        <v/>
+      </c>
+      <c r="U16" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>08-15-2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>651</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sữ Thị Thanh Tuyền</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>4900000</v>
+      </c>
+      <c r="J17" t="n">
+        <v/>
+      </c>
+      <c r="K17" t="n">
+        <v/>
+      </c>
+      <c r="L17" t="n">
+        <v>4900000</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v/>
+      </c>
+      <c r="O17" t="n">
+        <v>4900000</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4900000</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v/>
+      </c>
+      <c r="T17" t="n">
+        <v/>
+      </c>
+      <c r="U17" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>659</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Căng chỉ mặt</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Nguyễn Như Ngọc</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="J18" t="n">
+        <v/>
+      </c>
+      <c r="K18" t="n">
+        <v/>
+      </c>
+      <c r="L18" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v/>
+      </c>
+      <c r="O18" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v/>
+      </c>
+      <c r="U18" t="n">
+        <v/>
+      </c>
+      <c r="V18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>08-19-2024</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>665</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Tiềm cằm</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngô Phan Thuỵ</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="J19" t="n">
+        <v/>
+      </c>
+      <c r="K19" t="n">
+        <v/>
+      </c>
+      <c r="L19" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v/>
+      </c>
+      <c r="O19" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v/>
+      </c>
+      <c r="T19" t="n">
+        <v/>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>666</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Cắt mắt phượng</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Lê Thị Bích Liên</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="J20" t="n">
+        <v/>
+      </c>
+      <c r="K20" t="n">
+        <v/>
+      </c>
+      <c r="L20" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v/>
+      </c>
+      <c r="O20" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v/>
+      </c>
+      <c r="U20" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>667</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Lê Thị Bích Liên</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J21" t="n">
+        <v/>
+      </c>
+      <c r="K21" t="n">
+        <v/>
+      </c>
+      <c r="L21" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v/>
+      </c>
+      <c r="O21" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v/>
+      </c>
+      <c r="U21" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>668</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Chị Sa</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v/>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v/>
+      </c>
+      <c r="U22" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>669</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Chị Sa</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="J23" t="n">
+        <v/>
+      </c>
+      <c r="K23" t="n">
+        <v/>
+      </c>
+      <c r="L23" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v/>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v/>
+      </c>
+      <c r="U23" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>670</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v/>
+      </c>
+      <c r="F24" t="n">
+        <v/>
+      </c>
+      <c r="G24" t="n">
+        <v/>
+      </c>
+      <c r="H24" t="n">
+        <v/>
+      </c>
+      <c r="I24" t="n">
+        <v/>
+      </c>
+      <c r="J24" t="n">
+        <v/>
+      </c>
+      <c r="K24" t="n">
+        <v/>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v/>
+      </c>
+      <c r="N24" t="n">
+        <v/>
+      </c>
+      <c r="O24" t="n">
+        <v/>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v/>
+      </c>
+      <c r="T24" t="n">
+        <v/>
+      </c>
+      <c r="U24" t="n">
+        <v/>
+      </c>
+      <c r="V24" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>08-21-2024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>671</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Hồ Minh Trường</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>23300000</v>
+      </c>
+      <c r="J25" t="n">
+        <v/>
+      </c>
+      <c r="K25" t="n">
+        <v/>
+      </c>
+      <c r="L25" t="n">
+        <v>23300000</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v/>
+      </c>
+      <c r="O25" t="n">
+        <v>23300000</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>23300000</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v/>
+      </c>
+      <c r="U25" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V25" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>13</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>77750000</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>7500000</v>
-      </c>
-      <c r="L15" t="n">
-        <v>85250000</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
-        <v>75250000</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>77250000</v>
-      </c>
-      <c r="R15" t="n">
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>139550000</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>13500000</v>
+      </c>
+      <c r="L26" t="n">
+        <v>153050000</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="n">
+        <v>124050000</v>
+      </c>
+      <c r="P26" t="n">
+        <v>21000000</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>145050000</v>
+      </c>
+      <c r="R26" t="n">
         <v>8000000</v>
       </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="n">
-        <v>600000</v>
-      </c>
-      <c r="V15" t="n">
-        <v>200000</v>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="V26" t="n">
+        <v>250000</v>
       </c>
     </row>
   </sheetData>
@@ -1697,7 +2623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1943,18 +2869,183 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>185</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-557</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>186</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>08-15-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-367</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-05-30</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>189</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-465</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-06-23</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>190</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>08-21-2024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-669</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>191</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>08-21-2024</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-668</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>19500000</v>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>47000000</v>
       </c>
     </row>
   </sheetData>
@@ -1968,7 +3059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2483,19 +3574,765 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>793</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v/>
+      </c>
+      <c r="F17" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Bà lấy đi chợ</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>794</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Anh linh lấy tiền chỗ bà</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>795</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="G19" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>796</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>680000</v>
+      </c>
+      <c r="G20" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>797</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>480000</v>
+      </c>
+      <c r="G21" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>800</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>08-13-2024</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>112000</v>
+      </c>
+      <c r="G22" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>806</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>08-15-2024</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="G23" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>807</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>08-15-2024</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>350000</v>
+      </c>
+      <c r="G24" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>813</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>300000</v>
+      </c>
+      <c r="G25" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>814</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>150000</v>
+      </c>
+      <c r="G26" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>818</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Chí Phí Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>600000</v>
+      </c>
+      <c r="G27" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>819</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2550000</v>
+      </c>
+      <c r="G28" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>820</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>08-19-2024</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>3750000</v>
+      </c>
+      <c r="G29" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>821</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>08-19-2024</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G30" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>822</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>08-19-2024</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G31" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>823</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>08-19-2024</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G32" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>824</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>08-19-2024</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v/>
+      </c>
+      <c r="F33" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G33" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>825</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G34" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>826</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="G35" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>827</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="G36" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>833</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>08-22-2024</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G37" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>834</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>08-22-2024</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G38" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>835</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>08-22-2024</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>160000</v>
+      </c>
+      <c r="G39" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>838</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>08-21-2024</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>anh linh lấy tiền mặt</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>48813000</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>93345000</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2508,7 +4345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2581,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>4650000</v>
+        <v>8650000</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2639,11 +4476,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lâm Hoàng Phú</t>
+          <t xml:space="preserve">La Thị Ngọc Hà My </t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2655,10 +4492,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2667,17 +4504,17 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Lâm Hoàng Phú</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13000000</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2689,10 +4526,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -2701,23 +4538,23 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lê Hoàng Thanh</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15000000</v>
+        <v>17000000</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>4900000</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2735,57 +4572,57 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2000000</v>
+        <v>11500000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lê Văn Linh</t>
+          <t>Lê Hoàng Thanh</t>
         </is>
       </c>
       <c r="B7" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>2000000</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>10000000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Lê Văn Linh</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9000000</v>
+        <v>2000000</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>24600000</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -2803,23 +4640,23 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28000000</v>
+        <v>13000000</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>44000000</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -2837,32 +4674,32 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>22000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Trương Lâm Khanh</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>9000000</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>58200000</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -2877,17 +4714,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5100000</v>
+        <v>51300000</v>
       </c>
       <c r="C11" t="n">
-        <v>7500000</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>67300000</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -2911,35 +4748,103 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>24600000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>13500000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>77750000</v>
-      </c>
-      <c r="C12" t="n">
-        <v>7500000</v>
-      </c>
-      <c r="D12" t="n">
-        <v>73250000</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
-      </c>
-      <c r="G12" t="n">
-        <v>550000</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>19500000</v>
+      <c r="B14" t="n">
+        <v>139550000</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13500000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>139050000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>13</v>
+      </c>
+      <c r="G14" t="n">
+        <v>850000</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>47000000</v>
       </c>
     </row>
   </sheetData>
@@ -2953,7 +4858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2990,7 +4895,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2230000</v>
+        <v>6210000</v>
       </c>
     </row>
     <row r="4">
@@ -3000,47 +4905,57 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25220000</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Chí Phí Bác Sĩ Ngoài</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2143000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11800000</v>
+        <v>4853000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Blank</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5000000</v>
+        <v>34262000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Tổng cộng</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>48813000</v>
+      <c r="B9" t="n">
+        <v>93345000</v>
       </c>
     </row>
   </sheetData>
@@ -3054,7 +4969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3352,26 +5267,251 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>19160000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-16160000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>08-13-2024</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7400000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7400000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>112000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7288000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>08-15-2024</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4900000</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4900000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1850000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3550000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>450000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3550000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3150000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-3150000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>08-19-2024</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>9850000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-8650000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>27000000</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5300000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>7700000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>08-21-2024</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>23300000</v>
+      </c>
+      <c r="C19" t="n">
+        <v>23300000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>41800000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>08-22-2024</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4160000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-4160000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>85250000</v>
-      </c>
-      <c r="C12" t="n">
-        <v>75250000</v>
-      </c>
-      <c r="D12" t="n">
-        <v>13</v>
-      </c>
-      <c r="E12" t="n">
-        <v>19500000</v>
-      </c>
-      <c r="F12" t="n">
-        <v>48813000</v>
-      </c>
-      <c r="G12" t="n">
-        <v>45937000</v>
+      <c r="B21" t="n">
+        <v>153050000</v>
+      </c>
+      <c r="C21" t="n">
+        <v>124050000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>24</v>
+      </c>
+      <c r="E21" t="n">
+        <v>47000000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>93345000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>77705000</v>
       </c>
     </row>
   </sheetData>
@@ -3422,7 +5562,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2848928.571428572</v>
+        <v>7550214.285714285</v>
       </c>
     </row>
     <row r="3">
@@ -3437,7 +5577,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-4200000</v>
+        <v>-3128571.428571429</v>
       </c>
     </row>
     <row r="4">
@@ -3452,7 +5592,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1238571.428571429</v>
+        <v>199285.7142857141</v>
       </c>
     </row>
     <row r="5">
@@ -3467,7 +5607,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>785714.2857142858</v>
+        <v>1571428.571428572</v>
       </c>
     </row>
     <row r="6">
@@ -3482,7 +5622,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2357142.857142857</v>
+        <v>4714285.714285715</v>
       </c>
     </row>
     <row r="7">
@@ -3497,7 +5637,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="8">
@@ -3512,7 +5652,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1250000</v>
+        <v>-1000000</v>
       </c>
     </row>
     <row r="9">
@@ -3527,7 +5667,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5625142.857142857</v>
+        <v>11841000</v>
       </c>
     </row>
     <row r="10">
@@ -3542,7 +5682,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4074523.80952381</v>
+        <v>6374047.619047619</v>
       </c>
     </row>
     <row r="11">
@@ -3557,7 +5697,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8455000</v>
+        <v>3046785.714285715</v>
       </c>
     </row>
     <row r="12">
@@ -3572,7 +5712,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7477857.142857143</v>
+        <v>8143714.285714285</v>
       </c>
     </row>
     <row r="13">
@@ -3662,7 +5802,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2110000</v>
       </c>
     </row>
     <row r="19">
@@ -3733,7 +5873,7 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>28112880.95238096</v>
+        <v>42322190.47619048</v>
       </c>
     </row>
   </sheetData>
@@ -3824,37 +5964,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85250000</v>
+        <v>153050000</v>
       </c>
       <c r="C2" t="n">
-        <v>77250000</v>
+        <v>145050000</v>
       </c>
       <c r="D2" t="n">
-        <v>0.906158357771261</v>
+        <v>0.9477295001633453</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09384164222873903</v>
+        <v>0.05227049983665466</v>
       </c>
       <c r="F2" t="n">
-        <v>17500000</v>
+        <v>26000000</v>
       </c>
       <c r="G2" t="n">
-        <v>94750000</v>
+        <v>171050000</v>
       </c>
       <c r="H2" t="n">
-        <v>48813000</v>
+        <v>93345000</v>
       </c>
       <c r="I2" t="n">
-        <v>28112880.95238096</v>
+        <v>42322190.47619048</v>
       </c>
       <c r="J2" t="n">
-        <v>76925880.95238096</v>
+        <v>135667190.4761905</v>
       </c>
       <c r="K2" t="n">
-        <v>17824119.04761904</v>
+        <v>35382809.52380952</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1881173514260585</v>
+        <v>0.2068565303935079</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/CẦN THƠ 8 - 2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/CẦN THƠ 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2565,50 +2565,366 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>08-23-2024</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>675</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Đoàn Minh Thư</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v/>
+      </c>
+      <c r="J26" t="n">
+        <v/>
+      </c>
+      <c r="K26" t="n">
+        <v/>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v/>
+      </c>
+      <c r="O26" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="R26" t="n">
+        <v>-1500000</v>
+      </c>
+      <c r="S26" t="n">
+        <v/>
+      </c>
+      <c r="T26" t="n">
+        <v/>
+      </c>
+      <c r="U26" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>08-23-2024</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>676</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Ngọc Tâm</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="J27" t="n">
+        <v/>
+      </c>
+      <c r="K27" t="n">
+        <v/>
+      </c>
+      <c r="L27" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v/>
+      </c>
+      <c r="O27" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v/>
+      </c>
+      <c r="T27" t="n">
+        <v/>
+      </c>
+      <c r="U27" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>681</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v/>
+      </c>
+      <c r="F28" t="n">
+        <v/>
+      </c>
+      <c r="G28" t="n">
+        <v/>
+      </c>
+      <c r="H28" t="n">
+        <v/>
+      </c>
+      <c r="I28" t="n">
+        <v/>
+      </c>
+      <c r="J28" t="n">
+        <v/>
+      </c>
+      <c r="K28" t="n">
+        <v/>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v/>
+      </c>
+      <c r="N28" t="n">
+        <v/>
+      </c>
+      <c r="O28" t="n">
+        <v/>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v/>
+      </c>
+      <c r="T28" t="n">
+        <v/>
+      </c>
+      <c r="U28" t="n">
+        <v/>
+      </c>
+      <c r="V28" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>682</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v/>
+      </c>
+      <c r="F29" t="n">
+        <v/>
+      </c>
+      <c r="G29" t="n">
+        <v/>
+      </c>
+      <c r="H29" t="n">
+        <v/>
+      </c>
+      <c r="I29" t="n">
+        <v/>
+      </c>
+      <c r="J29" t="n">
+        <v/>
+      </c>
+      <c r="K29" t="n">
+        <v/>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v/>
+      </c>
+      <c r="N29" t="n">
+        <v/>
+      </c>
+      <c r="O29" t="n">
+        <v/>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v/>
+      </c>
+      <c r="T29" t="n">
+        <v/>
+      </c>
+      <c r="U29" t="n">
+        <v/>
+      </c>
+      <c r="V29" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>24</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="n">
-        <v>139550000</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>143250000</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
         <v>13500000</v>
       </c>
-      <c r="L26" t="n">
-        <v>153050000</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="n">
-        <v>124050000</v>
-      </c>
-      <c r="P26" t="n">
+      <c r="L30" t="n">
+        <v>156750000</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="n">
+        <v>129250000</v>
+      </c>
+      <c r="P30" t="n">
         <v>21000000</v>
       </c>
-      <c r="Q26" t="n">
-        <v>145050000</v>
-      </c>
-      <c r="R26" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="n">
-        <v>1050000</v>
-      </c>
-      <c r="V26" t="n">
+      <c r="Q30" t="n">
+        <v>150250000</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6500000</v>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="n">
+        <v>1150000</v>
+      </c>
+      <c r="V30" t="n">
         <v>250000</v>
       </c>
     </row>
@@ -2623,7 +2939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3034,18 +3350,84 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>194</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>08-23-2024</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-315</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>197</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-538</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
-        <v>47000000</v>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>50000000</v>
       </c>
     </row>
   </sheetData>
@@ -3059,7 +3441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4320,19 +4702,81 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>843</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>08-23-2024</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>510000</v>
+      </c>
+      <c r="G41" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>844</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>08-23-2024</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>350000</v>
+      </c>
+      <c r="G42" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>39</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="n">
-        <v>93345000</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>94205000</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4538,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1500000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="6">
@@ -4572,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>11500000</v>
+        <v>13500000</v>
       </c>
     </row>
     <row r="7">
@@ -4690,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>58200000</v>
+        <v>63400000</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -4786,7 +5230,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24600000</v>
+        <v>28300000</v>
       </c>
       <c r="C13" t="n">
         <v>13500000</v>
@@ -4820,13 +5264,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>139550000</v>
+        <v>143250000</v>
       </c>
       <c r="C14" t="n">
         <v>13500000</v>
       </c>
       <c r="D14" t="n">
-        <v>139050000</v>
+        <v>144250000</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -4844,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>47000000</v>
+        <v>50000000</v>
       </c>
     </row>
   </sheetData>
@@ -4895,7 +5339,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6210000</v>
+        <v>6560000</v>
       </c>
     </row>
     <row r="4">
@@ -4905,7 +5349,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30000000</v>
+        <v>30510000</v>
       </c>
     </row>
     <row r="5">
@@ -4955,7 +5399,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93345000</v>
+        <v>94205000</v>
       </c>
     </row>
   </sheetData>
@@ -4969,7 +5413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5492,26 +5936,101 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>08-23-2024</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5200000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6340000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>153050000</v>
-      </c>
-      <c r="C21" t="n">
-        <v>124050000</v>
-      </c>
-      <c r="D21" t="n">
-        <v>24</v>
-      </c>
-      <c r="E21" t="n">
-        <v>47000000</v>
-      </c>
-      <c r="F21" t="n">
-        <v>93345000</v>
-      </c>
-      <c r="G21" t="n">
-        <v>77705000</v>
+      <c r="B24" t="n">
+        <v>156750000</v>
+      </c>
+      <c r="C24" t="n">
+        <v>129250000</v>
+      </c>
+      <c r="D24" t="n">
+        <v>28</v>
+      </c>
+      <c r="E24" t="n">
+        <v>50000000</v>
+      </c>
+      <c r="F24" t="n">
+        <v>94205000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>85045000</v>
       </c>
     </row>
   </sheetData>
@@ -5562,7 +6081,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7550214.285714285</v>
+        <v>7880214.285714285</v>
       </c>
     </row>
     <row r="3">
@@ -5592,7 +6111,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>199285.7142857141</v>
+        <v>489285.7142857141</v>
       </c>
     </row>
     <row r="5">
@@ -5667,7 +6186,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11841000</v>
+        <v>12257000</v>
       </c>
     </row>
     <row r="10">
@@ -5682,7 +6201,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6374047.619047619</v>
+        <v>6794047.619047619</v>
       </c>
     </row>
     <row r="11">
@@ -5697,7 +6216,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3046785.714285715</v>
+        <v>3166785.714285716</v>
       </c>
     </row>
     <row r="12">
@@ -5873,7 +6392,7 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>42322190.47619048</v>
+        <v>43898190.47619048</v>
       </c>
     </row>
   </sheetData>
@@ -5964,37 +6483,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153050000</v>
+        <v>156750000</v>
       </c>
       <c r="C2" t="n">
-        <v>145050000</v>
+        <v>150250000</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9477295001633453</v>
+        <v>0.9585326953748007</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05227049983665466</v>
+        <v>0.04146730462519932</v>
       </c>
       <c r="F2" t="n">
-        <v>26000000</v>
+        <v>29000000</v>
       </c>
       <c r="G2" t="n">
-        <v>171050000</v>
+        <v>179250000</v>
       </c>
       <c r="H2" t="n">
-        <v>93345000</v>
+        <v>94205000</v>
       </c>
       <c r="I2" t="n">
-        <v>42322190.47619048</v>
+        <v>43898190.47619048</v>
       </c>
       <c r="J2" t="n">
-        <v>135667190.4761905</v>
+        <v>138103190.4761905</v>
       </c>
       <c r="K2" t="n">
-        <v>35382809.52380952</v>
+        <v>41146809.52380952</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2068565303935079</v>
+        <v>0.2295498439264129</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/CẦN THƠ 8 - 2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/CẦN THƠ 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2881,51 +2881,393 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>683</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Nguyễn Đặng Thảo Nhi</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="J30" t="n">
+        <v/>
+      </c>
+      <c r="K30" t="n">
+        <v/>
+      </c>
+      <c r="L30" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v/>
+      </c>
+      <c r="O30" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v/>
+      </c>
+      <c r="T30" t="n">
+        <v/>
+      </c>
+      <c r="U30" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>684</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Như Ý</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="J31" t="n">
+        <v/>
+      </c>
+      <c r="K31" t="n">
+        <v/>
+      </c>
+      <c r="L31" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>27000000</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>27000000</v>
+      </c>
+      <c r="R31" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
+        <v/>
+      </c>
+      <c r="U31" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V31" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>685</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Thoa</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="J32" t="n">
+        <v/>
+      </c>
+      <c r="K32" t="n">
+        <v/>
+      </c>
+      <c r="L32" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v/>
+      </c>
+      <c r="O32" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v/>
+      </c>
+      <c r="T32" t="n">
+        <v/>
+      </c>
+      <c r="U32" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>686</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Chị Sa</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="L33" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v/>
+      </c>
+      <c r="O33" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v/>
+      </c>
+      <c r="T33" t="n">
+        <v/>
+      </c>
+      <c r="U33" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>28</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="n">
-        <v>143250000</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>13500000</v>
-      </c>
-      <c r="L30" t="n">
-        <v>156750000</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="n">
-        <v>129250000</v>
-      </c>
-      <c r="P30" t="n">
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>182850000</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>17500000</v>
+      </c>
+      <c r="L34" t="n">
+        <v>200350000</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="n">
+        <v>164850000</v>
+      </c>
+      <c r="P34" t="n">
         <v>21000000</v>
       </c>
-      <c r="Q30" t="n">
-        <v>150250000</v>
-      </c>
-      <c r="R30" t="n">
-        <v>6500000</v>
-      </c>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="n">
-        <v>1150000</v>
-      </c>
-      <c r="V30" t="n">
-        <v>250000</v>
+      <c r="Q34" t="n">
+        <v>185850000</v>
+      </c>
+      <c r="R34" t="n">
+        <v>14500000</v>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="V34" t="n">
+        <v>300000</v>
       </c>
     </row>
   </sheetData>
@@ -3441,7 +3783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4764,19 +5106,172 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>854</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v/>
+      </c>
+      <c r="F43" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G43" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>855</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>75000</v>
+      </c>
+      <c r="G44" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>856</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G45" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>857</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>260000</v>
+      </c>
+      <c r="G46" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>858</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>150000</v>
+      </c>
+      <c r="G47" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>41</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="n">
-        <v>94205000</v>
-      </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>99810000</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4970,10 +5465,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="n">
-        <v>800000</v>
+        <v>900000</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -4992,13 +5487,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17000000</v>
+        <v>52000000</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>4900000</v>
+        <v>7700000</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -5134,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>63400000</v>
+        <v>69200000</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -5230,10 +5725,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28300000</v>
+        <v>32900000</v>
       </c>
       <c r="C13" t="n">
-        <v>13500000</v>
+        <v>17500000</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -5264,22 +5759,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>143250000</v>
+        <v>182850000</v>
       </c>
       <c r="C14" t="n">
-        <v>13500000</v>
+        <v>17500000</v>
       </c>
       <c r="D14" t="n">
-        <v>144250000</v>
+        <v>152850000</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>850000</v>
+        <v>950000</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -5349,7 +5844,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30510000</v>
+        <v>30630000</v>
       </c>
     </row>
     <row r="5">
@@ -5369,7 +5864,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4853000</v>
+        <v>5338000</v>
       </c>
     </row>
     <row r="7">
@@ -5389,7 +5884,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="9">
@@ -5399,7 +5894,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>94205000</v>
+        <v>99810000</v>
       </c>
     </row>
   </sheetData>
@@ -5990,22 +6485,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>43600000</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>35600000</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>5605000</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>29995000</v>
       </c>
     </row>
     <row r="24">
@@ -6015,22 +6510,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>156750000</v>
+        <v>200350000</v>
       </c>
       <c r="C24" t="n">
-        <v>129250000</v>
+        <v>164850000</v>
       </c>
       <c r="D24" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E24" t="n">
         <v>50000000</v>
       </c>
       <c r="F24" t="n">
-        <v>94205000</v>
+        <v>99810000</v>
       </c>
       <c r="G24" t="n">
-        <v>85045000</v>
+        <v>115040000</v>
       </c>
     </row>
   </sheetData>
@@ -6081,7 +6576,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7880214.285714285</v>
+        <v>9347714.285714285</v>
       </c>
     </row>
     <row r="3">
@@ -6096,7 +6591,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-3128571.428571429</v>
+        <v>-2700000</v>
       </c>
     </row>
     <row r="4">
@@ -6111,7 +6606,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>489285.7142857141</v>
+        <v>803571.4285714286</v>
       </c>
     </row>
     <row r="5">
@@ -6126,7 +6621,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1571428.571428572</v>
+        <v>1857142.857142857</v>
       </c>
     </row>
     <row r="6">
@@ -6141,7 +6636,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4714285.714285715</v>
+        <v>5571428.571428572</v>
       </c>
     </row>
     <row r="7">
@@ -6171,7 +6666,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -6186,7 +6681,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>12257000</v>
+        <v>14003857.14285714</v>
       </c>
     </row>
     <row r="10">
@@ -6201,7 +6696,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6794047.619047619</v>
+        <v>13360238.0952381</v>
       </c>
     </row>
     <row r="11">
@@ -6216,7 +6711,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3166785.714285716</v>
+        <v>4913214.285714284</v>
       </c>
     </row>
     <row r="12">
@@ -6231,7 +6726,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8143714.285714285</v>
+        <v>10426571.42857143</v>
       </c>
     </row>
     <row r="13">
@@ -6321,7 +6816,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2110000</v>
+        <v>2350000</v>
       </c>
     </row>
     <row r="19">
@@ -6392,7 +6887,7 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>43898190.47619048</v>
+        <v>60833738.0952381</v>
       </c>
     </row>
   </sheetData>
@@ -6483,37 +6978,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>156750000</v>
+        <v>200350000</v>
       </c>
       <c r="C2" t="n">
-        <v>150250000</v>
+        <v>185850000</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9585326953748007</v>
+        <v>0.9276266533566259</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04146730462519932</v>
+        <v>0.07237334664337414</v>
       </c>
       <c r="F2" t="n">
         <v>29000000</v>
       </c>
       <c r="G2" t="n">
-        <v>179250000</v>
+        <v>214850000</v>
       </c>
       <c r="H2" t="n">
-        <v>94205000</v>
+        <v>99810000</v>
       </c>
       <c r="I2" t="n">
-        <v>43898190.47619048</v>
+        <v>60833738.0952381</v>
       </c>
       <c r="J2" t="n">
-        <v>138103190.4761905</v>
+        <v>160643738.0952381</v>
       </c>
       <c r="K2" t="n">
-        <v>41146809.52380952</v>
+        <v>54206261.90476191</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2295498439264129</v>
+        <v>0.2522981703735718</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/CẦN THƠ 8 - 2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/CẦN THƠ 8 - 2024.xlsx
@@ -6576,7 +6576,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9347714.285714285</v>
+        <v>9327714.285714285</v>
       </c>
     </row>
     <row r="3">
@@ -6606,7 +6606,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>803571.4285714286</v>
+        <v>823571.4285714286</v>
       </c>
     </row>
     <row r="5">

--- a/Báo cáo/1_CẦN THƠ/CẦN THƠ 8 - 2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/CẦN THƠ 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,7 +887,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>08-01-2024</t>
+          <t>08-05-2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -896,51 +896,63 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v/>
-      </c>
-      <c r="F6" t="n">
-        <v/>
-      </c>
-      <c r="G6" t="n">
-        <v/>
-      </c>
-      <c r="H6" t="n">
-        <v/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Phạm Thị Trúc Lài</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
       </c>
       <c r="I6" t="n">
-        <v/>
-      </c>
-      <c r="J6" t="n">
-        <v/>
+        <v>500000</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
       </c>
       <c r="K6" t="n">
-        <v/>
+        <v>500000</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v/>
+        <v>1000000</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
       </c>
       <c r="N6" t="n">
         <v/>
       </c>
       <c r="O6" t="n">
-        <v/>
+        <v>1000000</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -952,10 +964,10 @@
         <v/>
       </c>
       <c r="U6" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -970,7 +982,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -979,13 +991,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Phun mày</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Phạm Thị Trúc Lài</t>
-        </is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v/>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -998,56 +1008,56 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>500000</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>4650000</v>
+      </c>
+      <c r="J7" t="n">
+        <v/>
       </c>
       <c r="K7" t="n">
-        <v>500000</v>
+        <v/>
       </c>
       <c r="L7" t="n">
-        <v>1000000</v>
+        <v>4650000</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Bác Sĩ Ngoài</t>
         </is>
       </c>
       <c r="N7" t="n">
         <v/>
       </c>
       <c r="O7" t="n">
-        <v>1000000</v>
+        <v>4650000</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1000000</v>
+        <v>4650000</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
-      <c r="S7" t="n">
-        <v/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
       </c>
       <c r="T7" t="n">
         <v/>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>08-05-2024</t>
+          <t>08-06-2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1056,7 +1066,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1065,11 +1075,13 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v/>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Võ Thị Thuỳ Trang</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1082,56 +1094,56 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>4650000</v>
-      </c>
-      <c r="J8" t="n">
-        <v/>
+        <v>500000</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
       </c>
       <c r="K8" t="n">
-        <v/>
+        <v>1000000</v>
       </c>
       <c r="L8" t="n">
-        <v>4650000</v>
+        <v>1500000</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Bác Sĩ Ngoài</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N8" t="n">
         <v/>
       </c>
       <c r="O8" t="n">
-        <v>4650000</v>
+        <v>1500000</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4650000</v>
+        <v>1500000</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
+      <c r="S8" t="n">
+        <v/>
       </c>
       <c r="T8" t="n">
         <v/>
       </c>
       <c r="U8" t="n">
-        <v>100000</v>
+        <v/>
       </c>
       <c r="V8" t="n">
-        <v>50000</v>
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>08-06-2024</t>
+          <t>08-07-2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1140,7 +1152,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1149,37 +1161,35 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Phun mày</t>
+          <t>Tiêm botox</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Võ Thị Thuỳ Trang</t>
+          <t>Nguyễn Thị Thắm</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CTV</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>CTV Ngoài</t>
+          <t>Lê Văn Linh</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>500000</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>2000000</v>
+      </c>
+      <c r="J9" t="n">
+        <v/>
       </c>
       <c r="K9" t="n">
-        <v>1000000</v>
+        <v/>
       </c>
       <c r="L9" t="n">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1190,13 +1200,13 @@
         <v/>
       </c>
       <c r="O9" t="n">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1208,10 +1218,10 @@
         <v/>
       </c>
       <c r="U9" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1226,7 +1236,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1235,12 +1245,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tiêm botox</t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Thắm</t>
+          <t>Bạch Nhi</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1250,58 +1260,60 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Lê Văn Linh</t>
+          <t>Lê Hoàng Thanh</t>
         </is>
       </c>
       <c r="I10" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v/>
+      </c>
+      <c r="O10" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="P10" t="n">
         <v>2000000</v>
       </c>
-      <c r="J10" t="n">
-        <v/>
-      </c>
-      <c r="K10" t="n">
-        <v/>
-      </c>
-      <c r="L10" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v/>
-      </c>
-      <c r="O10" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
       <c r="Q10" t="n">
-        <v>2000000</v>
+        <v>7000000</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v/>
+        <v>8000000</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
       </c>
       <c r="T10" t="n">
         <v/>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>08-07-2024</t>
+          <t>08-08-2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1310,7 +1322,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1319,26 +1331,26 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bạch Nhi</t>
+          <t>Nguyễn Bích Thuỳ</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>Khách cũ giới thiệu</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Lê Hoàng Thanh</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>15000000</v>
+        <v>9000000</v>
       </c>
       <c r="J11" t="n">
         <v/>
@@ -1347,27 +1359,27 @@
         <v/>
       </c>
       <c r="L11" t="n">
-        <v>15000000</v>
+        <v>9000000</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N11" t="n">
         <v/>
       </c>
       <c r="O11" t="n">
-        <v>5000000</v>
+        <v>9000000</v>
       </c>
       <c r="P11" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>7000000</v>
+        <v>9000000</v>
       </c>
       <c r="R11" t="n">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1378,16 +1390,16 @@
         <v/>
       </c>
       <c r="U11" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="V11" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>08-08-2024</t>
+          <t>08-11-2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1396,7 +1408,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1410,54 +1422,54 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nguyễn Bích Thuỳ</t>
+          <t>Trần Thị Nhi</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Khách cũ giới thiệu</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v/>
+      </c>
+      <c r="L12" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
           <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="J12" t="n">
-        <v/>
-      </c>
-      <c r="K12" t="n">
-        <v/>
-      </c>
-      <c r="L12" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
       <c r="N12" t="n">
         <v/>
       </c>
       <c r="O12" t="n">
-        <v>9000000</v>
+        <v>3000000</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>9000000</v>
+        <v>3000000</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Lâm Hoàng Phú</t>
+          <t>Trương Lâm Khanh</t>
         </is>
       </c>
       <c r="T12" t="n">
@@ -1482,7 +1494,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1491,12 +1503,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t>Cọc Dịch Vụ Làm Đẹp</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Trần Thị Nhi</t>
+          <t>Nguyễn Thị Huyền Trang</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1506,11 +1518,11 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="J13" t="n">
         <v/>
@@ -1519,47 +1531,43 @@
         <v/>
       </c>
       <c r="L13" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
+        <v>4000000</v>
+      </c>
+      <c r="M13" t="n">
+        <v/>
       </c>
       <c r="N13" t="n">
         <v/>
       </c>
       <c r="O13" t="n">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Trương Lâm Khanh</t>
-        </is>
+      <c r="S13" t="n">
+        <v/>
       </c>
       <c r="T13" t="n">
         <v/>
       </c>
       <c r="U13" t="n">
-        <v>50000</v>
+        <v/>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>08-13-2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1568,7 +1576,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1577,12 +1585,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cọc Dịch Vụ Làm Đẹp</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Huyền Trang</t>
+          <t>Bé Su</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1592,11 +1600,11 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>4000000</v>
+        <v>5400000</v>
       </c>
       <c r="J14" t="n">
         <v/>
@@ -1605,22 +1613,24 @@
         <v/>
       </c>
       <c r="L14" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="M14" t="n">
-        <v/>
+        <v>5400000</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
       </c>
       <c r="N14" t="n">
         <v/>
       </c>
       <c r="O14" t="n">
-        <v>4000000</v>
+        <v>5400000</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>4000000</v>
+        <v>5400000</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1632,10 +1642,10 @@
         <v/>
       </c>
       <c r="U14" t="n">
-        <v/>
+        <v>50000</v>
       </c>
       <c r="V14" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1650,7 +1660,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1664,21 +1674,21 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bé Su</t>
+          <t>Huyền Trân</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>Khách cũ</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t xml:space="preserve">La Thị Ngọc Hà My </t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5400000</v>
+        <v>2000000</v>
       </c>
       <c r="J15" t="n">
         <v/>
@@ -1687,24 +1697,22 @@
         <v/>
       </c>
       <c r="L15" t="n">
-        <v>5400000</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
+        <v>2000000</v>
+      </c>
+      <c r="M15" t="n">
+        <v/>
       </c>
       <c r="N15" t="n">
         <v/>
       </c>
       <c r="O15" t="n">
-        <v>5400000</v>
+        <v>2000000</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>5400000</v>
+        <v>2000000</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1725,7 +1733,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>08-13-2024</t>
+          <t>08-15-2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1734,7 +1742,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1748,7 +1756,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Huyền Trân</t>
+          <t>Sữ Thị Thanh Tuyền</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1758,11 +1766,11 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Thị Ngọc Hà My </t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2000000</v>
+        <v>4900000</v>
       </c>
       <c r="J16" t="n">
         <v/>
@@ -1771,22 +1779,24 @@
         <v/>
       </c>
       <c r="L16" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="M16" t="n">
-        <v/>
+        <v>4900000</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
       </c>
       <c r="N16" t="n">
         <v/>
       </c>
       <c r="O16" t="n">
-        <v>2000000</v>
+        <v>4900000</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>2000000</v>
+        <v>4900000</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1807,7 +1817,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>08-15-2024</t>
+          <t>08-16-2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1816,7 +1826,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1825,26 +1835,26 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Căng chỉ mặt</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Sữ Thị Thanh Tuyền</t>
+          <t>Nguyễn Như Ngọc</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>4900000</v>
+        <v>4000000</v>
       </c>
       <c r="J17" t="n">
         <v/>
@@ -1853,45 +1863,47 @@
         <v/>
       </c>
       <c r="L17" t="n">
-        <v>4900000</v>
+        <v>4000000</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Bác Sĩ Ngoài</t>
         </is>
       </c>
       <c r="N17" t="n">
         <v/>
       </c>
       <c r="O17" t="n">
-        <v>4900000</v>
+        <v>4000000</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4900000</v>
+        <v>4000000</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
-      <c r="S17" t="n">
-        <v/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
       </c>
       <c r="T17" t="n">
         <v/>
       </c>
       <c r="U17" t="n">
-        <v>50000</v>
+        <v/>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>08-16-2024</t>
+          <t>08-19-2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1900,7 +1912,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1909,12 +1921,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Căng chỉ mặt</t>
+          <t>Tiềm cằm</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ngọc</t>
+          <t>Nguyễn Ngô Phan Thuỵ</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1924,11 +1936,11 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>4000000</v>
+        <v>1200000</v>
       </c>
       <c r="J18" t="n">
         <v/>
@@ -1937,47 +1949,45 @@
         <v/>
       </c>
       <c r="L18" t="n">
-        <v>4000000</v>
+        <v>1200000</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Bác Sĩ Ngoài</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N18" t="n">
         <v/>
       </c>
       <c r="O18" t="n">
-        <v>4000000</v>
+        <v>1200000</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>4000000</v>
+        <v>1200000</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
+      <c r="S18" t="n">
+        <v/>
       </c>
       <c r="T18" t="n">
         <v/>
       </c>
       <c r="U18" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>08-19-2024</t>
+          <t>08-20-2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1986,7 +1996,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1995,12 +2005,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tiềm cằm</t>
+          <t>Cắt mắt phượng</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Nguyễn Ngô Phan Thuỵ</t>
+          <t>Lê Thị Bích Liên</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2014,7 +2024,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1200000</v>
+        <v>5000000</v>
       </c>
       <c r="J19" t="n">
         <v/>
@@ -2023,7 +2033,7 @@
         <v/>
       </c>
       <c r="L19" t="n">
-        <v>1200000</v>
+        <v>5000000</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2034,25 +2044,27 @@
         <v/>
       </c>
       <c r="O19" t="n">
-        <v>1200000</v>
+        <v>5000000</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1200000</v>
+        <v>5000000</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
-      <c r="S19" t="n">
-        <v/>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
       </c>
       <c r="T19" t="n">
         <v/>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2082,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2079,7 +2091,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Cắt mắt phượng</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2098,7 +2110,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="J20" t="n">
         <v/>
@@ -2107,7 +2119,7 @@
         <v/>
       </c>
       <c r="L20" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2118,13 +2130,13 @@
         <v/>
       </c>
       <c r="O20" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2156,7 +2168,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2170,30 +2182,32 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lê Thị Bích Liên</t>
+          <t>Chị Sa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>Khách cũ</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
           <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
-      <c r="I21" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="J21" t="n">
-        <v/>
-      </c>
       <c r="K21" t="n">
-        <v/>
+        <v>6000000</v>
       </c>
       <c r="L21" t="n">
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2204,13 +2218,13 @@
         <v/>
       </c>
       <c r="O21" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="Q21" t="n">
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2242,7 +2256,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2251,7 +2265,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2270,18 +2284,16 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>13000000</v>
+      </c>
+      <c r="J22" t="n">
+        <v/>
       </c>
       <c r="K22" t="n">
-        <v>6000000</v>
+        <v/>
       </c>
       <c r="L22" t="n">
-        <v>6000000</v>
+        <v>13000000</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2295,10 +2307,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>6000000</v>
+        <v>13000000</v>
       </c>
       <c r="Q22" t="n">
-        <v>6000000</v>
+        <v>13000000</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2321,7 +2333,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>08-20-2024</t>
+          <t>08-21-2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2330,7 +2342,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2339,26 +2351,26 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Chị Sa</t>
+          <t>Hồ Minh Trường</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>13000000</v>
+        <v>23300000</v>
       </c>
       <c r="J23" t="n">
         <v/>
@@ -2367,24 +2379,24 @@
         <v/>
       </c>
       <c r="L23" t="n">
-        <v>13000000</v>
+        <v>23300000</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="N23" t="n">
         <v/>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>23300000</v>
       </c>
       <c r="P23" t="n">
-        <v>13000000</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>13000000</v>
+        <v>23300000</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2398,16 +2410,16 @@
         <v/>
       </c>
       <c r="U23" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V23" t="n">
         <v>50000</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>08-20-2024</t>
+          <t>08-23-2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2416,27 +2428,35 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v/>
-      </c>
-      <c r="F24" t="n">
-        <v/>
-      </c>
-      <c r="G24" t="n">
-        <v/>
-      </c>
-      <c r="H24" t="n">
-        <v/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Đoàn Minh Thư</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
       </c>
       <c r="I24" t="n">
-        <v/>
+        <v>1500000</v>
       </c>
       <c r="J24" t="n">
         <v/>
@@ -2445,22 +2465,24 @@
         <v/>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v/>
+        <v>1500000</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
       </c>
       <c r="N24" t="n">
         <v/>
       </c>
       <c r="O24" t="n">
-        <v/>
+        <v>1500000</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2472,16 +2494,16 @@
         <v/>
       </c>
       <c r="U24" t="n">
-        <v/>
+        <v>50000</v>
       </c>
       <c r="V24" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>08-21-2024</t>
+          <t>08-23-2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2490,7 +2512,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2499,26 +2521,26 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Hồ Minh Trường</t>
+          <t>Nguyễn Thị Ngọc Tâm</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>Khách cũ</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>23300000</v>
+        <v>3700000</v>
       </c>
       <c r="J25" t="n">
         <v/>
@@ -2527,47 +2549,45 @@
         <v/>
       </c>
       <c r="L25" t="n">
-        <v>23300000</v>
+        <v>3700000</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N25" t="n">
         <v/>
       </c>
       <c r="O25" t="n">
-        <v>23300000</v>
+        <v>3700000</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>23300000</v>
+        <v>3700000</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
+      <c r="S25" t="n">
+        <v/>
       </c>
       <c r="T25" t="n">
         <v/>
       </c>
       <c r="U25" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="V25" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>08-23-2024</t>
+          <t>08-25-2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2576,7 +2596,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2590,7 +2610,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Đoàn Minh Thư</t>
+          <t>Nguyễn Đặng Thảo Nhi</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2604,7 +2624,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v/>
+        <v>2800000</v>
       </c>
       <c r="J26" t="n">
         <v/>
@@ -2613,27 +2633,27 @@
         <v/>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>2800000</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="N26" t="n">
         <v/>
       </c>
       <c r="O26" t="n">
-        <v>1500000</v>
+        <v>2800000</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1500000</v>
+        <v>2800000</v>
       </c>
       <c r="R26" t="n">
-        <v>-1500000</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v/>
@@ -2651,7 +2671,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>08-23-2024</t>
+          <t>08-25-2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2660,7 +2680,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2669,26 +2689,26 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Ngọc Tâm</t>
+          <t>Nguyễn Thị Như Ý</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3700000</v>
+        <v>35000000</v>
       </c>
       <c r="J27" t="n">
         <v/>
@@ -2697,39 +2717,43 @@
         <v/>
       </c>
       <c r="L27" t="n">
-        <v>3700000</v>
+        <v>35000000</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
-        <v/>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
       </c>
       <c r="O27" t="n">
-        <v>3700000</v>
+        <v>27000000</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>3700000</v>
+        <v>27000000</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v/>
+        <v>8000000</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
       </c>
       <c r="T27" t="n">
         <v/>
       </c>
       <c r="U27" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V27" t="n">
         <v>50000</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2744,27 +2768,35 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v/>
-      </c>
-      <c r="F28" t="n">
-        <v/>
-      </c>
-      <c r="G28" t="n">
-        <v/>
-      </c>
-      <c r="H28" t="n">
-        <v/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Thoa</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
       </c>
       <c r="I28" t="n">
-        <v/>
+        <v>1800000</v>
       </c>
       <c r="J28" t="n">
         <v/>
@@ -2773,22 +2805,24 @@
         <v/>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v/>
+        <v>1800000</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
       </c>
       <c r="N28" t="n">
         <v/>
       </c>
       <c r="O28" t="n">
-        <v/>
+        <v>1800000</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2800,10 +2834,10 @@
         <v/>
       </c>
       <c r="U28" t="n">
-        <v/>
+        <v>50000</v>
       </c>
       <c r="V28" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2818,51 +2852,63 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v/>
-      </c>
-      <c r="F29" t="n">
-        <v/>
-      </c>
-      <c r="G29" t="n">
-        <v/>
-      </c>
-      <c r="H29" t="n">
-        <v/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Chị Sa</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
       </c>
       <c r="I29" t="n">
-        <v/>
-      </c>
-      <c r="J29" t="n">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
       </c>
       <c r="K29" t="n">
-        <v/>
+        <v>4000000</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v/>
+        <v>4000000</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
       </c>
       <c r="N29" t="n">
         <v/>
       </c>
       <c r="O29" t="n">
-        <v/>
+        <v>4000000</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2874,16 +2920,16 @@
         <v/>
       </c>
       <c r="U29" t="n">
-        <v/>
+        <v>50000</v>
       </c>
       <c r="V29" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>08-25-2024</t>
+          <t>08-26-2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2892,7 +2938,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2906,21 +2952,21 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Nguyễn Đặng Thảo Nhi</t>
+          <t>Đặng Thị Hồng Hạnh</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>Khách cũ</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2800000</v>
+        <v>3000000</v>
       </c>
       <c r="J30" t="n">
         <v/>
@@ -2929,24 +2975,24 @@
         <v/>
       </c>
       <c r="L30" t="n">
-        <v>2800000</v>
+        <v>3000000</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N30" t="n">
         <v/>
       </c>
       <c r="O30" t="n">
-        <v>2800000</v>
+        <v>3000000</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>2800000</v>
+        <v>3000000</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2967,7 +3013,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>08-25-2024</t>
+          <t>08-27-2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2976,7 +3022,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2985,12 +3031,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Như Ý</t>
+          <t>Nguyễn Yến Nhi</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -3004,7 +3050,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>35000000</v>
+        <v>19500000</v>
       </c>
       <c r="J31" t="n">
         <v/>
@@ -3013,49 +3059,45 @@
         <v/>
       </c>
       <c r="L31" t="n">
-        <v>35000000</v>
+        <v>19500000</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v/>
       </c>
       <c r="O31" t="n">
-        <v>27000000</v>
+        <v>19500000</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>27000000</v>
+        <v>19500000</v>
       </c>
       <c r="R31" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v/>
       </c>
       <c r="T31" t="n">
         <v/>
       </c>
       <c r="U31" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="V31" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>08-25-2024</t>
+          <t>08-27-2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3064,7 +3106,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3073,26 +3115,26 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Thoa</t>
+          <t>Phan Thị Diễm My</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1800000</v>
+        <v>22000000</v>
       </c>
       <c r="J32" t="n">
         <v/>
@@ -3101,45 +3143,47 @@
         <v/>
       </c>
       <c r="L32" t="n">
-        <v>1800000</v>
+        <v>22000000</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="N32" t="n">
         <v/>
       </c>
       <c r="O32" t="n">
-        <v>1800000</v>
+        <v>22000000</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1800000</v>
+        <v>22000000</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
-      <c r="S32" t="n">
-        <v/>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
       </c>
       <c r="T32" t="n">
         <v/>
       </c>
       <c r="U32" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V32" t="n">
         <v>50000</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>08-25-2024</t>
+          <t>08-27-2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3148,7 +3192,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3162,49 +3206,47 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Chị Sa</t>
+          <t>Phan Thị Diễm My</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>3000000</v>
+      </c>
+      <c r="J33" t="n">
+        <v/>
       </c>
       <c r="K33" t="n">
-        <v>4000000</v>
+        <v/>
       </c>
       <c r="L33" t="n">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="N33" t="n">
         <v/>
       </c>
       <c r="O33" t="n">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3223,51 +3265,221 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>694</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Xét nghiệm máu</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Phan Thị Diễm My</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J34" t="n">
+        <v/>
+      </c>
+      <c r="K34" t="n">
+        <v/>
+      </c>
+      <c r="L34" t="n">
+        <v>500000</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v/>
+      </c>
+      <c r="O34" t="n">
+        <v>500000</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>500000</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v/>
+      </c>
+      <c r="T34" t="n">
+        <v/>
+      </c>
+      <c r="U34" t="n">
+        <v/>
+      </c>
+      <c r="V34" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>695</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Chị Sa</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v/>
+      </c>
+      <c r="O35" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v/>
+      </c>
+      <c r="T35" t="n">
+        <v/>
+      </c>
+      <c r="U35" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>32</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="n">
-        <v>182850000</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>17500000</v>
-      </c>
-      <c r="L34" t="n">
-        <v>200350000</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="n">
-        <v>164850000</v>
-      </c>
-      <c r="P34" t="n">
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>232350000</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>20500000</v>
+      </c>
+      <c r="L36" t="n">
+        <v>252850000</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="n">
+        <v>215850000</v>
+      </c>
+      <c r="P36" t="n">
         <v>21000000</v>
       </c>
-      <c r="Q34" t="n">
-        <v>185850000</v>
-      </c>
-      <c r="R34" t="n">
-        <v>14500000</v>
-      </c>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="n">
-        <v>1400000</v>
-      </c>
-      <c r="V34" t="n">
-        <v>300000</v>
+      <c r="Q36" t="n">
+        <v>236850000</v>
+      </c>
+      <c r="R36" t="n">
+        <v>16000000</v>
+      </c>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="V36" t="n">
+        <v>350000</v>
       </c>
     </row>
   </sheetData>
@@ -3783,7 +3995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5259,19 +5471,143 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>863</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>08-26-2024</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G48" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>864</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>08-26-2024</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>155000</v>
+      </c>
+      <c r="G49" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>865</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>08-26-2024</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>165000</v>
+      </c>
+      <c r="G50" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>866</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>840000</v>
+      </c>
+      <c r="G51" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>46</v>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="n">
-        <v>99810000</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>101470000</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5357,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>8650000</v>
+        <v>9150000</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -5465,10 +5801,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="n">
-        <v>900000</v>
+        <v>1000000</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -5487,13 +5823,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52000000</v>
+        <v>100000000</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>7700000</v>
+        <v>13700000</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -5629,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>69200000</v>
+        <v>91700000</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -5663,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>67300000</v>
+        <v>89300000</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -5725,10 +6061,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32900000</v>
+        <v>34400000</v>
       </c>
       <c r="C13" t="n">
-        <v>17500000</v>
+        <v>20500000</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -5759,22 +6095,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>182850000</v>
+        <v>232350000</v>
       </c>
       <c r="C14" t="n">
-        <v>17500000</v>
+        <v>20500000</v>
       </c>
       <c r="D14" t="n">
-        <v>152850000</v>
+        <v>203850000</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>950000</v>
+        <v>1050000</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -5864,7 +6200,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5338000</v>
+        <v>6833000</v>
       </c>
     </row>
     <row r="7">
@@ -5874,7 +6210,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34262000</v>
+        <v>34427000</v>
       </c>
     </row>
     <row r="8">
@@ -5894,7 +6230,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99810000</v>
+        <v>101470000</v>
       </c>
     </row>
   </sheetData>
@@ -5908,7 +6244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5966,7 +6302,7 @@
         <v>8100000</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -6366,7 +6702,7 @@
         <v>8000000</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
         <v>5000000</v>
@@ -6435,7 +6771,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3700000</v>
+        <v>5200000</v>
       </c>
       <c r="C21" t="n">
         <v>5200000</v>
@@ -6491,7 +6827,7 @@
         <v>35600000</v>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -6506,26 +6842,76 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>08-26-2024</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>820000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2180000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>48000000</v>
+      </c>
+      <c r="C25" t="n">
+        <v>48000000</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>840000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>47160000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>200350000</v>
-      </c>
-      <c r="C24" t="n">
-        <v>164850000</v>
-      </c>
-      <c r="D24" t="n">
-        <v>32</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="B26" t="n">
+        <v>252850000</v>
+      </c>
+      <c r="C26" t="n">
+        <v>215850000</v>
+      </c>
+      <c r="D26" t="n">
+        <v>34</v>
+      </c>
+      <c r="E26" t="n">
         <v>50000000</v>
       </c>
-      <c r="F24" t="n">
-        <v>99810000</v>
-      </c>
-      <c r="G24" t="n">
-        <v>115040000</v>
+      <c r="F26" t="n">
+        <v>101470000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>164380000</v>
       </c>
     </row>
   </sheetData>
@@ -6539,7 +6925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6563,6 +6949,16 @@
           <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Ứng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Tổng lương thực nhận tại CẦN THƠ</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6576,7 +6972,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9327714.285714285</v>
+        <v>9597714.285714285</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9597714.285714285</v>
       </c>
     </row>
     <row r="3">
@@ -6591,6 +6993,12 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>2300000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="E3" t="n">
         <v>-2700000</v>
       </c>
     </row>
@@ -6606,7 +7014,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>823571.4285714286</v>
+        <v>3723571.428571429</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>923571.4285714286</v>
       </c>
     </row>
     <row r="5">
@@ -6623,6 +7037,12 @@
       <c r="C5" t="n">
         <v>1857142.857142857</v>
       </c>
+      <c r="D5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1857142.857142857</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6638,6 +7058,12 @@
       <c r="C6" t="n">
         <v>5571428.571428572</v>
       </c>
+      <c r="D6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5571428.571428572</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6653,6 +7079,12 @@
       <c r="C7" t="n">
         <v>200000</v>
       </c>
+      <c r="D7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>200000</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6666,6 +7098,12 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>6500000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6500000</v>
+      </c>
+      <c r="E8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6681,7 +7119,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14003857.14285714</v>
+        <v>16303857.14285714</v>
+      </c>
+      <c r="D9" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15803857.14285714</v>
       </c>
     </row>
     <row r="10">
@@ -6696,7 +7140,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>13360238.0952381</v>
+        <v>20575238.0952381</v>
+      </c>
+      <c r="D10" t="n">
+        <v>665000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>19910238.0952381</v>
       </c>
     </row>
     <row r="11">
@@ -6711,7 +7161,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4913214.285714284</v>
+        <v>20463214.28571428</v>
+      </c>
+      <c r="D11" t="n">
+        <v>13350000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7113214.285714284</v>
       </c>
     </row>
     <row r="12">
@@ -6726,6 +7182,12 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>16038571.42857143</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5612000</v>
+      </c>
+      <c r="E12" t="n">
         <v>10426571.42857143</v>
       </c>
     </row>
@@ -6743,6 +7205,12 @@
       <c r="C13" t="n">
         <v>0</v>
       </c>
+      <c r="D13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6758,6 +7226,12 @@
       <c r="C14" t="n">
         <v>700000</v>
       </c>
+      <c r="D14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>700000</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6773,6 +7247,12 @@
       <c r="C15" t="n">
         <v>0</v>
       </c>
+      <c r="D15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6788,6 +7268,12 @@
       <c r="C16" t="n">
         <v>0</v>
       </c>
+      <c r="D16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6803,6 +7289,12 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
+      <c r="D17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6816,7 +7308,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2350000</v>
+        <v>2530000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2530000</v>
       </c>
     </row>
     <row r="19">
@@ -6833,6 +7331,12 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
+      <c r="D19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6848,6 +7352,12 @@
       <c r="C20" t="n">
         <v>0</v>
       </c>
+      <c r="D20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6863,6 +7373,12 @@
       <c r="C21" t="n">
         <v>0</v>
       </c>
+      <c r="D21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6878,16 +7394,28 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Tổng lương</t>
+          <t>Tổng</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>60833738.0952381</v>
+        <v>106360738.0952381</v>
+      </c>
+      <c r="D23" t="n">
+        <v>34427000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>71933738.0952381</v>
       </c>
     </row>
   </sheetData>
@@ -6978,37 +7506,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>200350000</v>
+        <v>252850000</v>
       </c>
       <c r="C2" t="n">
-        <v>185850000</v>
+        <v>236850000</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9276266533566259</v>
+        <v>0.9367213763100652</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07237334664337414</v>
+        <v>0.06327862368993475</v>
       </c>
       <c r="F2" t="n">
         <v>29000000</v>
       </c>
       <c r="G2" t="n">
-        <v>214850000</v>
+        <v>265850000</v>
       </c>
       <c r="H2" t="n">
-        <v>99810000</v>
+        <v>101470000</v>
       </c>
       <c r="I2" t="n">
-        <v>60833738.0952381</v>
+        <v>106360738.0952381</v>
       </c>
       <c r="J2" t="n">
-        <v>160643738.0952381</v>
+        <v>207830738.0952381</v>
       </c>
       <c r="K2" t="n">
-        <v>54206261.90476191</v>
+        <v>58019261.90476191</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2522981703735718</v>
+        <v>0.2182405939618654</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/CẦN THƠ 8 - 2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/CẦN THƠ 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3435,51 +3435,641 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>697</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Lê Ngọc Huệ</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>4550000</v>
+      </c>
+      <c r="J36" t="n">
+        <v/>
+      </c>
+      <c r="K36" t="n">
+        <v/>
+      </c>
+      <c r="L36" t="n">
+        <v>4550000</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v/>
+      </c>
+      <c r="O36" t="n">
+        <v>4550000</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4550000</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v/>
+      </c>
+      <c r="T36" t="n">
+        <v/>
+      </c>
+      <c r="U36" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>698</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Tiêm botox</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Lâm Tuyết Nghi</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="J37" t="n">
+        <v/>
+      </c>
+      <c r="K37" t="n">
+        <v/>
+      </c>
+      <c r="L37" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v/>
+      </c>
+      <c r="O37" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v/>
+      </c>
+      <c r="T37" t="n">
+        <v/>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>699</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị My Sa</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="J38" t="n">
+        <v/>
+      </c>
+      <c r="K38" t="n">
+        <v/>
+      </c>
+      <c r="L38" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v/>
+      </c>
+      <c r="O38" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v/>
+      </c>
+      <c r="U38" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V38" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>700</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Xét nghiệm máu</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị My Sa</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J39" t="n">
+        <v/>
+      </c>
+      <c r="K39" t="n">
+        <v/>
+      </c>
+      <c r="L39" t="n">
+        <v>500000</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v/>
+      </c>
+      <c r="O39" t="n">
+        <v>500000</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>500000</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v/>
+      </c>
+      <c r="T39" t="n">
+        <v/>
+      </c>
+      <c r="U39" t="n">
+        <v/>
+      </c>
+      <c r="V39" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>701</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Ngọc Thượng</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="J40" t="n">
+        <v/>
+      </c>
+      <c r="K40" t="n">
+        <v/>
+      </c>
+      <c r="L40" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v/>
+      </c>
+      <c r="O40" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v/>
+      </c>
+      <c r="T40" t="n">
+        <v/>
+      </c>
+      <c r="U40" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>08-29-2024</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>703</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Ngô Thị Trúc Mỹ</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>4800000</v>
+      </c>
+      <c r="J41" t="n">
+        <v/>
+      </c>
+      <c r="K41" t="n">
+        <v/>
+      </c>
+      <c r="L41" t="n">
+        <v>4800000</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v/>
+      </c>
+      <c r="O41" t="n">
+        <v>4800000</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4800000</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v/>
+      </c>
+      <c r="T41" t="n">
+        <v/>
+      </c>
+      <c r="U41" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>08-29-2024</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>704</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Võ Thị Thuỳ Trang</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>900000</v>
+      </c>
+      <c r="J42" t="n">
+        <v/>
+      </c>
+      <c r="K42" t="n">
+        <v/>
+      </c>
+      <c r="L42" t="n">
+        <v>900000</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v/>
+      </c>
+      <c r="O42" t="n">
+        <v>900000</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>900000</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v/>
+      </c>
+      <c r="T42" t="n">
+        <v/>
+      </c>
+      <c r="U42" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>34</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="n">
-        <v>232350000</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>271500000</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
         <v>20500000</v>
       </c>
-      <c r="L36" t="n">
-        <v>252850000</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="n">
-        <v>215850000</v>
-      </c>
-      <c r="P36" t="n">
+      <c r="L43" t="n">
+        <v>292000000</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="n">
+        <v>255000000</v>
+      </c>
+      <c r="P43" t="n">
         <v>21000000</v>
       </c>
-      <c r="Q36" t="n">
-        <v>236850000</v>
-      </c>
-      <c r="R36" t="n">
+      <c r="Q43" t="n">
+        <v>276000000</v>
+      </c>
+      <c r="R43" t="n">
         <v>16000000</v>
       </c>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="n">
-        <v>1700000</v>
-      </c>
-      <c r="V36" t="n">
-        <v>350000</v>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="V43" t="n">
+        <v>400000</v>
       </c>
     </row>
   </sheetData>
@@ -3493,7 +4083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3537,6 +4127,61 @@
           <t>Lượng thu</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3570,6 +4215,49 @@
       <c r="G2" t="n">
         <v>1000000</v>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Quỳnh Như</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>40000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v/>
+      </c>
+      <c r="N2" t="n">
+        <v/>
+      </c>
+      <c r="O2" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>40000000</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3603,6 +4291,49 @@
       <c r="G3" t="n">
         <v>4000000</v>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Quỳnh Như</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v/>
+      </c>
+      <c r="N3" t="n">
+        <v/>
+      </c>
+      <c r="O3" t="n">
+        <v/>
+      </c>
+      <c r="P3" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3636,6 +4367,49 @@
       <c r="G4" t="n">
         <v>10000000</v>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Lâm Minh Ngọc</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Lê Văn Linh</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v/>
+      </c>
+      <c r="N4" t="n">
+        <v/>
+      </c>
+      <c r="O4" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3669,6 +4443,51 @@
       <c r="G5" t="n">
         <v>1500000</v>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Ngô Xuân Nhi</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>9500000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3702,6 +4521,49 @@
       <c r="G6" t="n">
         <v>2000000</v>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Bạch Nhi</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Lê Hoàng Thanh</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="M6" t="n">
+        <v/>
+      </c>
+      <c r="N6" t="n">
+        <v/>
+      </c>
+      <c r="O6" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3735,6 +4597,51 @@
       <c r="G7" t="n">
         <v>1000000</v>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Mai Bảo Thi</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v/>
+      </c>
+      <c r="N7" t="n">
+        <v/>
+      </c>
+      <c r="O7" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3768,6 +4675,49 @@
       <c r="G8" t="n">
         <v>3000000</v>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc My</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="M8" t="n">
+        <v/>
+      </c>
+      <c r="N8" t="n">
+        <v/>
+      </c>
+      <c r="O8" t="n">
+        <v>32000000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3801,6 +4751,49 @@
       <c r="G9" t="n">
         <v>500000</v>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Phan Yến Nhi</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M9" t="n">
+        <v/>
+      </c>
+      <c r="N9" t="n">
+        <v/>
+      </c>
+      <c r="O9" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3834,6 +4827,49 @@
       <c r="G10" t="n">
         <v>5000000</v>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Phạm Trần Thuý Vi</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="M10" t="n">
+        <v/>
+      </c>
+      <c r="N10" t="n">
+        <v/>
+      </c>
+      <c r="O10" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3867,6 +4903,49 @@
       <c r="G11" t="n">
         <v>13000000</v>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Chị Sa</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="M11" t="n">
+        <v/>
+      </c>
+      <c r="N11" t="n">
+        <v/>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3900,6 +4979,51 @@
       <c r="G12" t="n">
         <v>6000000</v>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Chị Sa</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3933,6 +5057,51 @@
       <c r="G13" t="n">
         <v>2000000</v>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Mai Bảo Thi</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="M13" t="n">
+        <v/>
+      </c>
+      <c r="N13" t="n">
+        <v/>
+      </c>
+      <c r="O13" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3966,23 +5135,391 @@
       <c r="G14" t="n">
         <v>1000000</v>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Ngô Xuân Nhi</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="O14" t="n">
+        <v>9500000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>198</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-367</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024-05-30</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Phan Yến Nhi</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M15" t="n">
+        <v/>
+      </c>
+      <c r="N15" t="n">
+        <v/>
+      </c>
+      <c r="O15" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P15" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>199</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>08-29-2024</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-367</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024-05-30</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v/>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Phan Yến Nhi</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M16" t="n">
+        <v/>
+      </c>
+      <c r="N16" t="n">
+        <v/>
+      </c>
+      <c r="O16" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P16" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>200</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>08-29-2024</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-192</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Tiến</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="M17" t="n">
+        <v/>
+      </c>
+      <c r="N17" t="n">
+        <v/>
+      </c>
+      <c r="O17" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="P17" t="n">
+        <v>18800000</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>201</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>08-30-2024</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-176</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Duyên</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>38000000</v>
+      </c>
+      <c r="M18" t="n">
+        <v/>
+      </c>
+      <c r="N18" t="n">
+        <v/>
+      </c>
+      <c r="O18" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="P18" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>50000000</v>
-      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>58200000</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>297000000</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="O19" t="n">
+        <v>145000000</v>
+      </c>
+      <c r="P19" t="n">
+        <v>264800000</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3995,7 +5532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5595,19 +7132,205 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>870</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>720000</v>
+      </c>
+      <c r="G52" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>871</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Phúc lợi công ty</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G53" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>874</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>08-29-2024</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G54" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>877</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>08-30-2024</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>2070000</v>
+      </c>
+      <c r="G55" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>878</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>08-30-2024</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>4480000</v>
+      </c>
+      <c r="G56" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>881</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>08-30-2024</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G57" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>50</v>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="n">
-        <v>101470000</v>
-      </c>
-      <c r="G52" t="inlineStr"/>
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>111740000</v>
+      </c>
+      <c r="G58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5801,10 +7524,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="n">
-        <v>1000000</v>
+        <v>1100000</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -5823,13 +7546,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100000000</v>
+        <v>104550000</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>13700000</v>
+        <v>18250000</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -5847,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>13500000</v>
+        <v>21700000</v>
       </c>
     </row>
     <row r="7">
@@ -5959,13 +7682,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9000000</v>
+        <v>9900000</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>91700000</v>
+        <v>101300000</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -5999,7 +7722,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>89300000</v>
+        <v>114300000</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -6027,7 +7750,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>27500000</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -6061,7 +7784,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34400000</v>
+        <v>40600000</v>
       </c>
       <c r="C13" t="n">
         <v>20500000</v>
@@ -6095,22 +7818,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>232350000</v>
+        <v>271500000</v>
       </c>
       <c r="C14" t="n">
         <v>20500000</v>
       </c>
       <c r="D14" t="n">
-        <v>203850000</v>
+        <v>243000000</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>1050000</v>
+        <v>1150000</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -6119,7 +7842,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>50000000</v>
+        <v>58200000</v>
       </c>
     </row>
   </sheetData>
@@ -6133,7 +7856,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6180,7 +7903,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30630000</v>
+        <v>33130000</v>
       </c>
     </row>
     <row r="5">
@@ -6196,41 +7919,51 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Phúc lợi công ty</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6833000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34427000</v>
+        <v>14103000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Blank</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20000000</v>
+        <v>34427000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Tổng cộng</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>101470000</v>
+      <c r="B10" t="n">
+        <v>111740000</v>
       </c>
     </row>
   </sheetData>
@@ -6244,7 +7977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6892,26 +8625,101 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>33450000</v>
+      </c>
+      <c r="C26" t="n">
+        <v>33450000</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1220000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>33230000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>08-29-2024</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>5700000</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5700000</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7900000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>08-30-2024</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7050000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-4050000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>252850000</v>
-      </c>
-      <c r="C26" t="n">
-        <v>215850000</v>
-      </c>
-      <c r="D26" t="n">
-        <v>34</v>
-      </c>
-      <c r="E26" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="F26" t="n">
-        <v>101470000</v>
-      </c>
-      <c r="G26" t="n">
-        <v>164380000</v>
+      <c r="B29" t="n">
+        <v>292000000</v>
+      </c>
+      <c r="C29" t="n">
+        <v>255000000</v>
+      </c>
+      <c r="D29" t="n">
+        <v>41</v>
+      </c>
+      <c r="E29" t="n">
+        <v>58200000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>111740000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>201460000</v>
       </c>
     </row>
   </sheetData>
@@ -6972,13 +8780,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9597714.285714285</v>
+        <v>10092000</v>
       </c>
       <c r="D2" t="n">
         <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>9597714.285714285</v>
+        <v>10092000</v>
       </c>
     </row>
     <row r="3">
@@ -6993,13 +8801,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2300000</v>
+        <v>6853571.428571429</v>
       </c>
       <c r="D3" t="n">
         <v>5000000</v>
       </c>
       <c r="E3" t="n">
-        <v>-2700000</v>
+        <v>1853571.428571429</v>
       </c>
     </row>
     <row r="4">
@@ -7014,13 +8822,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3723571.428571429</v>
+        <v>4234285.714285715</v>
       </c>
       <c r="D4" t="n">
         <v>2800000</v>
       </c>
       <c r="E4" t="n">
-        <v>923571.4285714286</v>
+        <v>1434285.714285715</v>
       </c>
     </row>
     <row r="5">
@@ -7035,13 +8843,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1857142.857142857</v>
+        <v>2142857.142857143</v>
       </c>
       <c r="D5" t="n">
         <v>-0</v>
       </c>
       <c r="E5" t="n">
-        <v>1857142.857142857</v>
+        <v>2142857.142857143</v>
       </c>
     </row>
     <row r="6">
@@ -7056,13 +8864,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5571428.571428572</v>
+        <v>6428571.428571429</v>
       </c>
       <c r="D6" t="n">
         <v>-0</v>
       </c>
       <c r="E6" t="n">
-        <v>5571428.571428572</v>
+        <v>6428571.428571429</v>
       </c>
     </row>
     <row r="7">
@@ -7077,13 +8885,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>200000</v>
+        <v>3200000</v>
       </c>
       <c r="D7" t="n">
         <v>-0</v>
       </c>
       <c r="E7" t="n">
-        <v>200000</v>
+        <v>3200000</v>
       </c>
     </row>
     <row r="8">
@@ -7098,13 +8906,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6500000</v>
+        <v>7500000</v>
       </c>
       <c r="D8" t="n">
         <v>6500000</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="9">
@@ -7119,13 +8927,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>16303857.14285714</v>
+        <v>17439714.28571429</v>
       </c>
       <c r="D9" t="n">
         <v>500000</v>
       </c>
       <c r="E9" t="n">
-        <v>15803857.14285714</v>
+        <v>16939714.28571429</v>
       </c>
     </row>
     <row r="10">
@@ -7140,13 +8948,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20575238.0952381</v>
+        <v>22577428.57142857</v>
       </c>
       <c r="D10" t="n">
         <v>665000</v>
       </c>
       <c r="E10" t="n">
-        <v>19910238.0952381</v>
+        <v>21912428.57142857</v>
       </c>
     </row>
     <row r="11">
@@ -7161,13 +8969,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20463214.28571428</v>
+        <v>23162142.85714286</v>
       </c>
       <c r="D11" t="n">
         <v>13350000</v>
       </c>
       <c r="E11" t="n">
-        <v>7113214.285714284</v>
+        <v>9812142.857142858</v>
       </c>
     </row>
     <row r="12">
@@ -7182,13 +8990,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>16038571.42857143</v>
+        <v>17271428.57142857</v>
       </c>
       <c r="D12" t="n">
         <v>5612000</v>
       </c>
       <c r="E12" t="n">
-        <v>10426571.42857143</v>
+        <v>11659428.57142857</v>
       </c>
     </row>
     <row r="13">
@@ -7409,13 +9217,13 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>106360738.0952381</v>
+        <v>124132000</v>
       </c>
       <c r="D23" t="n">
         <v>34427000</v>
       </c>
       <c r="E23" t="n">
-        <v>71933738.0952381</v>
+        <v>89705000</v>
       </c>
     </row>
   </sheetData>
@@ -7506,37 +9314,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>252850000</v>
+        <v>292000000</v>
       </c>
       <c r="C2" t="n">
-        <v>236850000</v>
+        <v>276000000</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9367213763100652</v>
+        <v>0.9452054794520548</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06327862368993475</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="F2" t="n">
-        <v>29000000</v>
+        <v>37200000</v>
       </c>
       <c r="G2" t="n">
-        <v>265850000</v>
+        <v>313200000</v>
       </c>
       <c r="H2" t="n">
-        <v>101470000</v>
+        <v>111740000</v>
       </c>
       <c r="I2" t="n">
-        <v>106360738.0952381</v>
+        <v>89705000</v>
       </c>
       <c r="J2" t="n">
-        <v>207830738.0952381</v>
+        <v>201445000</v>
       </c>
       <c r="K2" t="n">
-        <v>58019261.90476191</v>
+        <v>111755000</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2182405939618654</v>
+        <v>0.3568167305236271</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/CẦN THƠ 8 - 2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/CẦN THƠ 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,16 +529,6 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -621,12 +611,6 @@
       <c r="T2" t="n">
         <v/>
       </c>
-      <c r="U2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -705,12 +689,6 @@
       <c r="T3" t="n">
         <v/>
       </c>
-      <c r="U3" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -791,12 +769,6 @@
       <c r="T4" t="n">
         <v/>
       </c>
-      <c r="U4" t="n">
-        <v>100000</v>
-      </c>
-      <c r="V4" t="n">
-        <v>50000</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -877,12 +849,6 @@
       <c r="T5" t="n">
         <v/>
       </c>
-      <c r="U5" t="n">
-        <v>100000</v>
-      </c>
-      <c r="V5" t="n">
-        <v>50000</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -963,12 +929,6 @@
       <c r="T6" t="n">
         <v/>
       </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1047,12 +1007,6 @@
       <c r="T7" t="n">
         <v/>
       </c>
-      <c r="U7" t="n">
-        <v>100000</v>
-      </c>
-      <c r="V7" t="n">
-        <v>50000</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1133,12 +1087,6 @@
       <c r="T8" t="n">
         <v/>
       </c>
-      <c r="U8" t="n">
-        <v/>
-      </c>
-      <c r="V8" t="n">
-        <v/>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1217,12 +1165,6 @@
       <c r="T9" t="n">
         <v/>
       </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1303,12 +1245,6 @@
       <c r="T10" t="n">
         <v/>
       </c>
-      <c r="U10" t="n">
-        <v>100000</v>
-      </c>
-      <c r="V10" t="n">
-        <v>50000</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1389,12 +1325,6 @@
       <c r="T11" t="n">
         <v/>
       </c>
-      <c r="U11" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1475,12 +1405,6 @@
       <c r="T12" t="n">
         <v/>
       </c>
-      <c r="U12" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1557,12 +1481,6 @@
       <c r="T13" t="n">
         <v/>
       </c>
-      <c r="U13" t="n">
-        <v/>
-      </c>
-      <c r="V13" t="n">
-        <v/>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1641,12 +1559,6 @@
       <c r="T14" t="n">
         <v/>
       </c>
-      <c r="U14" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1723,12 +1635,6 @@
       <c r="T15" t="n">
         <v/>
       </c>
-      <c r="U15" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1807,12 +1713,6 @@
       <c r="T16" t="n">
         <v/>
       </c>
-      <c r="U16" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1893,12 +1793,6 @@
       <c r="T17" t="n">
         <v/>
       </c>
-      <c r="U17" t="n">
-        <v/>
-      </c>
-      <c r="V17" t="n">
-        <v/>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1977,12 +1871,6 @@
       <c r="T18" t="n">
         <v/>
       </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2063,12 +1951,6 @@
       <c r="T19" t="n">
         <v/>
       </c>
-      <c r="U19" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2149,12 +2031,6 @@
       <c r="T20" t="n">
         <v/>
       </c>
-      <c r="U20" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2237,12 +2113,6 @@
       <c r="T21" t="n">
         <v/>
       </c>
-      <c r="U21" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2323,12 +2193,6 @@
       <c r="T22" t="n">
         <v/>
       </c>
-      <c r="U22" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2409,12 +2273,6 @@
       <c r="T23" t="n">
         <v/>
       </c>
-      <c r="U23" t="n">
-        <v>100000</v>
-      </c>
-      <c r="V23" t="n">
-        <v>50000</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2493,12 +2351,6 @@
       <c r="T24" t="n">
         <v/>
       </c>
-      <c r="U24" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2577,12 +2429,6 @@
       <c r="T25" t="n">
         <v/>
       </c>
-      <c r="U25" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2661,12 +2507,6 @@
       <c r="T26" t="n">
         <v/>
       </c>
-      <c r="U26" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2749,12 +2589,6 @@
       <c r="T27" t="n">
         <v/>
       </c>
-      <c r="U27" t="n">
-        <v>100000</v>
-      </c>
-      <c r="V27" t="n">
-        <v>50000</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2833,12 +2667,6 @@
       <c r="T28" t="n">
         <v/>
       </c>
-      <c r="U28" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2919,12 +2747,6 @@
       <c r="T29" t="n">
         <v/>
       </c>
-      <c r="U29" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3003,12 +2825,6 @@
       <c r="T30" t="n">
         <v/>
       </c>
-      <c r="U30" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3087,12 +2903,6 @@
       <c r="T31" t="n">
         <v/>
       </c>
-      <c r="U31" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3173,12 +2983,6 @@
       <c r="T32" t="n">
         <v/>
       </c>
-      <c r="U32" t="n">
-        <v>100000</v>
-      </c>
-      <c r="V32" t="n">
-        <v>50000</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3257,12 +3061,6 @@
       <c r="T33" t="n">
         <v/>
       </c>
-      <c r="U33" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3341,12 +3139,6 @@
       <c r="T34" t="n">
         <v/>
       </c>
-      <c r="U34" t="n">
-        <v/>
-      </c>
-      <c r="V34" t="n">
-        <v/>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3427,12 +3219,6 @@
       <c r="T35" t="n">
         <v/>
       </c>
-      <c r="U35" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3511,12 +3297,6 @@
       <c r="T36" t="n">
         <v/>
       </c>
-      <c r="U36" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3595,12 +3375,6 @@
       <c r="T37" t="n">
         <v/>
       </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3681,12 +3455,6 @@
       <c r="T38" t="n">
         <v/>
       </c>
-      <c r="U38" t="n">
-        <v>100000</v>
-      </c>
-      <c r="V38" t="n">
-        <v>50000</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3765,12 +3533,6 @@
       <c r="T39" t="n">
         <v/>
       </c>
-      <c r="U39" t="n">
-        <v/>
-      </c>
-      <c r="V39" t="n">
-        <v/>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3849,12 +3611,6 @@
       <c r="T40" t="n">
         <v/>
       </c>
-      <c r="U40" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3933,12 +3689,6 @@
       <c r="T41" t="n">
         <v/>
       </c>
-      <c r="U41" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4016,12 +3766,6 @@
       </c>
       <c r="T42" t="n">
         <v/>
-      </c>
-      <c r="U42" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4065,12 +3809,6 @@
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="V43" t="n">
-        <v>400000</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4083,7 +3821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4149,37 +3887,17 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Đã thanh toán</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
+          <t>Dư nợ</t>
         </is>
       </c>
     </row>
@@ -4239,24 +3957,10 @@
         <v>40000000</v>
       </c>
       <c r="M2" t="n">
-        <v/>
+        <v>40000000</v>
       </c>
       <c r="N2" t="n">
-        <v/>
-      </c>
-      <c r="O2" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="P2" t="n">
-        <v>40000000</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4315,24 +4019,10 @@
         <v>9000000</v>
       </c>
       <c r="M3" t="n">
-        <v/>
+        <v>4000000</v>
       </c>
       <c r="N3" t="n">
-        <v/>
-      </c>
-      <c r="O3" t="n">
-        <v/>
-      </c>
-      <c r="P3" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v/>
+        <v>5000000</v>
       </c>
     </row>
     <row r="4">
@@ -4391,24 +4081,10 @@
         <v>20000000</v>
       </c>
       <c r="M4" t="n">
-        <v/>
+        <v>20000000</v>
       </c>
       <c r="N4" t="n">
-        <v/>
-      </c>
-      <c r="O4" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4464,29 +4140,13 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>18000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>12000000</v>
       </c>
       <c r="N5" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>9500000</v>
-      </c>
-      <c r="P5" t="n">
-        <v>12000000</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
-        <v/>
+        <v>6000000</v>
       </c>
     </row>
     <row r="6">
@@ -4545,24 +4205,10 @@
         <v>15000000</v>
       </c>
       <c r="M6" t="n">
-        <v/>
+        <v>7000000</v>
       </c>
       <c r="N6" t="n">
-        <v/>
-      </c>
-      <c r="O6" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="P6" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v/>
+        <v>8000000</v>
       </c>
     </row>
     <row r="7">
@@ -4621,26 +4267,10 @@
         <v>20000000</v>
       </c>
       <c r="M7" t="n">
-        <v/>
+        <v>18000000</v>
       </c>
       <c r="N7" t="n">
-        <v/>
-      </c>
-      <c r="O7" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>18000000</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
+        <v>2000000</v>
       </c>
     </row>
     <row r="8">
@@ -4699,24 +4329,10 @@
         <v>35000000</v>
       </c>
       <c r="M8" t="n">
-        <v/>
+        <v>35000000</v>
       </c>
       <c r="N8" t="n">
-        <v/>
-      </c>
-      <c r="O8" t="n">
-        <v>32000000</v>
-      </c>
-      <c r="P8" t="n">
-        <v>35000000</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4775,24 +4391,10 @@
         <v>9000000</v>
       </c>
       <c r="M9" t="n">
-        <v/>
+        <v>8000000</v>
       </c>
       <c r="N9" t="n">
-        <v/>
-      </c>
-      <c r="O9" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="P9" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
-        <v/>
+        <v>1000000</v>
       </c>
     </row>
     <row r="10">
@@ -4851,24 +4453,10 @@
         <v>15000000</v>
       </c>
       <c r="M10" t="n">
-        <v/>
+        <v>15000000</v>
       </c>
       <c r="N10" t="n">
-        <v/>
-      </c>
-      <c r="O10" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="P10" t="n">
-        <v>15000000</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="R10" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4927,24 +4515,10 @@
         <v>13000000</v>
       </c>
       <c r="M11" t="n">
-        <v/>
+        <v>13000000</v>
       </c>
       <c r="N11" t="n">
-        <v/>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>13000000</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="R11" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -5000,29 +4574,13 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>6000000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>6000000</v>
       </c>
       <c r="N12" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -5081,26 +4639,10 @@
         <v>20000000</v>
       </c>
       <c r="M13" t="n">
-        <v/>
+        <v>18000000</v>
       </c>
       <c r="N13" t="n">
-        <v/>
-      </c>
-      <c r="O13" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="P13" t="n">
-        <v>18000000</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
+        <v>2000000</v>
       </c>
     </row>
     <row r="14">
@@ -5156,29 +4698,13 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>18000000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>12000000</v>
       </c>
       <c r="N14" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="O14" t="n">
-        <v>9500000</v>
-      </c>
-      <c r="P14" t="n">
-        <v>12000000</v>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R14" t="n">
-        <v/>
+        <v>6000000</v>
       </c>
     </row>
     <row r="15">
@@ -5237,24 +4763,10 @@
         <v>9000000</v>
       </c>
       <c r="M15" t="n">
-        <v/>
+        <v>8000000</v>
       </c>
       <c r="N15" t="n">
-        <v/>
-      </c>
-      <c r="O15" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="P15" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v/>
+        <v>1000000</v>
       </c>
     </row>
     <row r="16">
@@ -5313,24 +4825,10 @@
         <v>9000000</v>
       </c>
       <c r="M16" t="n">
-        <v/>
+        <v>8000000</v>
       </c>
       <c r="N16" t="n">
-        <v/>
-      </c>
-      <c r="O16" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="P16" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R16" t="n">
-        <v/>
+        <v>1000000</v>
       </c>
     </row>
     <row r="17">
@@ -5389,24 +4887,10 @@
         <v>25000000</v>
       </c>
       <c r="M17" t="n">
-        <v/>
+        <v>18800000</v>
       </c>
       <c r="N17" t="n">
-        <v/>
-      </c>
-      <c r="O17" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="P17" t="n">
-        <v>18800000</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="R17" t="n">
-        <v/>
+        <v>6200000</v>
       </c>
     </row>
     <row r="18">
@@ -5465,24 +4949,10 @@
         <v>38000000</v>
       </c>
       <c r="M18" t="n">
-        <v/>
+        <v>22000000</v>
       </c>
       <c r="N18" t="n">
-        <v/>
-      </c>
-      <c r="O18" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="P18" t="n">
-        <v>22000000</v>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R18" t="n">
-        <v/>
+        <v>16000000</v>
       </c>
     </row>
     <row r="19">
@@ -5506,20 +4976,14 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>297000000</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>319000000</v>
+      </c>
+      <c r="M19" t="n">
+        <v>264800000</v>
+      </c>
       <c r="N19" t="n">
-        <v>22000000</v>
-      </c>
-      <c r="O19" t="n">
-        <v>145000000</v>
-      </c>
-      <c r="P19" t="n">
-        <v>264800000</v>
-      </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+        <v>54200000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Báo cáo/1_CẦN THƠ/CẦN THƠ 8 - 2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/CẦN THƠ 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3769,46 +3769,204 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>08-31-2024</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>708</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc Hân</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="J43" t="n">
+        <v/>
+      </c>
+      <c r="K43" t="n">
+        <v/>
+      </c>
+      <c r="L43" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v/>
+      </c>
+      <c r="O43" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="R43" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>08-31-2024</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>709</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Xét nghiệm máu</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc Hân</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J44" t="n">
+        <v/>
+      </c>
+      <c r="K44" t="n">
+        <v/>
+      </c>
+      <c r="L44" t="n">
+        <v>500000</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v/>
+      </c>
+      <c r="O44" t="n">
+        <v>500000</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>500000</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v/>
+      </c>
+      <c r="T44" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>41</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="n">
-        <v>271500000</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>292000000</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
         <v>20500000</v>
       </c>
-      <c r="L43" t="n">
-        <v>292000000</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="n">
-        <v>255000000</v>
-      </c>
-      <c r="P43" t="n">
+      <c r="L45" t="n">
+        <v>312500000</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="n">
+        <v>263500000</v>
+      </c>
+      <c r="P45" t="n">
         <v>21000000</v>
       </c>
-      <c r="Q43" t="n">
-        <v>276000000</v>
-      </c>
-      <c r="R43" t="n">
-        <v>16000000</v>
-      </c>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
+      <c r="Q45" t="n">
+        <v>284500000</v>
+      </c>
+      <c r="R45" t="n">
+        <v>28000000</v>
+      </c>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4996,7 +5154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6782,19 +6940,50 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>886</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>08-31-2024</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G58" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>56</v>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="n">
-        <v>111740000</v>
-      </c>
-      <c r="G58" t="inlineStr"/>
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>113740000</v>
+      </c>
+      <c r="G59" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6988,10 +7177,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" t="n">
-        <v>1100000</v>
+        <v>1200000</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -7152,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>101300000</v>
+        <v>101800000</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -7186,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>114300000</v>
+        <v>122300000</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -7214,7 +7403,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27500000</v>
+        <v>48000000</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -7282,22 +7471,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>271500000</v>
+        <v>292000000</v>
       </c>
       <c r="C14" t="n">
         <v>20500000</v>
       </c>
       <c r="D14" t="n">
-        <v>243000000</v>
+        <v>251500000</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>1150000</v>
+        <v>1250000</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -7407,7 +7596,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34427000</v>
+        <v>36427000</v>
       </c>
     </row>
     <row r="9">
@@ -7427,7 +7616,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>111740000</v>
+        <v>113740000</v>
       </c>
     </row>
   </sheetData>
@@ -7441,7 +7630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8164,26 +8353,51 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>08-31-2024</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>20500000</v>
+      </c>
+      <c r="C29" t="n">
+        <v>8500000</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>6500000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>292000000</v>
-      </c>
-      <c r="C29" t="n">
-        <v>255000000</v>
-      </c>
-      <c r="D29" t="n">
-        <v>41</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="B30" t="n">
+        <v>312500000</v>
+      </c>
+      <c r="C30" t="n">
+        <v>263500000</v>
+      </c>
+      <c r="D30" t="n">
+        <v>43</v>
+      </c>
+      <c r="E30" t="n">
         <v>58200000</v>
       </c>
-      <c r="F29" t="n">
-        <v>111740000</v>
-      </c>
-      <c r="G29" t="n">
-        <v>201460000</v>
+      <c r="F30" t="n">
+        <v>113740000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>207960000</v>
       </c>
     </row>
   </sheetData>
@@ -8197,7 +8411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8244,13 +8458,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10092000</v>
+        <v>10270571.42857143</v>
       </c>
       <c r="D2" t="n">
         <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>10092000</v>
+        <v>10270571.42857143</v>
       </c>
     </row>
     <row r="3">
@@ -8265,13 +8479,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6853571.428571429</v>
+        <v>8235714.285714285</v>
       </c>
       <c r="D3" t="n">
         <v>5000000</v>
       </c>
       <c r="E3" t="n">
-        <v>1853571.428571429</v>
+        <v>3235714.285714285</v>
       </c>
     </row>
     <row r="4">
@@ -8286,13 +8500,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4234285.714285715</v>
+        <v>4477142.857142857</v>
       </c>
       <c r="D4" t="n">
         <v>2800000</v>
       </c>
       <c r="E4" t="n">
-        <v>1434285.714285715</v>
+        <v>1677142.857142857</v>
       </c>
     </row>
     <row r="5">
@@ -8307,13 +8521,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2142857.142857143</v>
+        <v>2214285.714285715</v>
       </c>
       <c r="D5" t="n">
         <v>-0</v>
       </c>
       <c r="E5" t="n">
-        <v>2142857.142857143</v>
+        <v>2214285.714285715</v>
       </c>
     </row>
     <row r="6">
@@ -8328,13 +8542,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6428571.428571429</v>
+        <v>6642857.142857143</v>
       </c>
       <c r="D6" t="n">
         <v>-0</v>
       </c>
       <c r="E6" t="n">
-        <v>6428571.428571429</v>
+        <v>6642857.142857143</v>
       </c>
     </row>
     <row r="7">
@@ -8349,13 +8563,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3200000</v>
+        <v>3307142.857142857</v>
       </c>
       <c r="D7" t="n">
         <v>-0</v>
       </c>
       <c r="E7" t="n">
-        <v>3200000</v>
+        <v>3307142.857142857</v>
       </c>
     </row>
     <row r="8">
@@ -8370,171 +8584,171 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7500000</v>
+        <v>7000000</v>
       </c>
       <c r="D8" t="n">
         <v>6500000</v>
       </c>
       <c r="E8" t="n">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NV-5</t>
+          <t>NV-48</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Nguyễn hữu quang</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17439714.28571429</v>
+        <v>3333333.333333333</v>
       </c>
       <c r="D9" t="n">
-        <v>500000</v>
+        <v>2000000</v>
       </c>
       <c r="E9" t="n">
-        <v>16939714.28571429</v>
+        <v>1333333.333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NV-6</t>
+          <t>NV-5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22577428.57142857</v>
+        <v>17775428.57142857</v>
       </c>
       <c r="D10" t="n">
-        <v>665000</v>
+        <v>500000</v>
       </c>
       <c r="E10" t="n">
-        <v>21912428.57142857</v>
+        <v>17275428.57142857</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NV-7</t>
+          <t>NV-6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23162142.85714286</v>
+        <v>22696476.19047619</v>
       </c>
       <c r="D11" t="n">
-        <v>13350000</v>
+        <v>665000</v>
       </c>
       <c r="E11" t="n">
-        <v>9812142.857142858</v>
+        <v>22031476.19047619</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NV-9</t>
+          <t>NV-7</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lê Văn Linh</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17271428.57142857</v>
+        <v>24069285.71428572</v>
       </c>
       <c r="D12" t="n">
-        <v>5612000</v>
+        <v>13350000</v>
       </c>
       <c r="E12" t="n">
-        <v>11659428.57142857</v>
+        <v>10719285.71428572</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NV-22</t>
+          <t>NV-9</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Nam</t>
+          <t>Lê Văn Linh</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>17807142.85714286</v>
       </c>
       <c r="D13" t="n">
-        <v>-0</v>
+        <v>5612000</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>12195142.85714286</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NV-23</t>
+          <t>NV-22</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lê Hoàng Thanh</t>
+          <t>Nguyễn Phúc Nam</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>-0</v>
       </c>
       <c r="E14" t="n">
-        <v>700000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NV-30</t>
+          <t>NV-23</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Đào Vương Anh</t>
+          <t>Lê Hoàng Thanh</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="D15" t="n">
         <v>-0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NV-36</t>
+          <t>NV-30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t>Đào Vương Anh</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -8550,12 +8764,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NV-40</t>
+          <t>NV-36</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sang sang</t>
+          <t>Đặng Ngọc Mai</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -8571,54 +8785,54 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NV-10</t>
+          <t>NV-40</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Sang sang</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2530000</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>-0</v>
       </c>
       <c r="E18" t="n">
-        <v>2530000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NV-16</t>
+          <t>NV-10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2530000</v>
       </c>
       <c r="D19" t="n">
         <v>-0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2530000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NV-26</t>
+          <t>NV-16</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Trần Khánh Hiệp</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -8634,12 +8848,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NV-27</t>
+          <t>NV-26</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cô Siêng giúp Việc</t>
+          <t>Trần Khánh Hiệp</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -8655,12 +8869,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NV-38</t>
+          <t>NV-27</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Lê Thị Ngọc Mi</t>
+          <t>Cô Siêng giúp Việc</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -8676,18 +8890,39 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>NV-38</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Lê Thị Ngọc Mi</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="n">
-        <v>124132000</v>
-      </c>
-      <c r="D23" t="n">
-        <v>34427000</v>
-      </c>
-      <c r="E23" t="n">
-        <v>89705000</v>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>131059380.952381</v>
+      </c>
+      <c r="D24" t="n">
+        <v>36427000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>94632380.95238096</v>
       </c>
     </row>
   </sheetData>
@@ -8778,37 +9013,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>292000000</v>
+        <v>312500000</v>
       </c>
       <c r="C2" t="n">
-        <v>276000000</v>
+        <v>284500000</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9452054794520548</v>
+        <v>0.9104</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0547945205479452</v>
+        <v>0.08960000000000001</v>
       </c>
       <c r="F2" t="n">
         <v>37200000</v>
       </c>
       <c r="G2" t="n">
-        <v>313200000</v>
+        <v>321700000</v>
       </c>
       <c r="H2" t="n">
-        <v>111740000</v>
+        <v>113740000</v>
       </c>
       <c r="I2" t="n">
-        <v>89705000</v>
+        <v>94632380.95238096</v>
       </c>
       <c r="J2" t="n">
-        <v>201445000</v>
+        <v>208372380.952381</v>
       </c>
       <c r="K2" t="n">
-        <v>111755000</v>
+        <v>113327619.047619</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3568167305236271</v>
+        <v>0.3522773361753778</v>
       </c>
     </row>
   </sheetData>
